--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613397F-CC6E-4DB0-9F04-FB24484FDCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DC83B-D39A-45F9-85FE-13CDFDFCF6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>F/2</t>
   </si>
+  <si>
+    <t>F/1</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,9 +227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,37 +574,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW38"/>
+  <dimension ref="A1:CB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD8" sqref="BD8"/>
+      <selection pane="bottomRight" activeCell="BW30" sqref="BW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="70" width="7.5703125" customWidth="1"/>
+    <col min="25" max="27" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="40" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="50" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="63" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="80" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -822,14 +836,29 @@
       <c r="BU1" s="2">
         <v>45019</v>
       </c>
-      <c r="BV1" s="2">
-        <v>45020</v>
+      <c r="BV1" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="BW1" s="2">
         <v>45021</v>
       </c>
+      <c r="BX1" s="2">
+        <v>45054</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>45055</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>45056</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>45057</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>45058</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1055,8 +1084,23 @@
       <c r="BW2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="BX2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1321,11 @@
       <c r="BV3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1499,8 +1546,11 @@
       <c r="BV4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BW4" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1702,7 @@
       </c>
       <c r="BV5" s="4"/>
     </row>
-    <row r="6" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1854,7 @@
       </c>
       <c r="BV6" s="4"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2027,8 +2077,11 @@
       <c r="BV7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BW7" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2302,11 @@
       <c r="BV8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2473,8 +2529,11 @@
       <c r="BV9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW9" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2697,8 +2756,11 @@
       <c r="BV10" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="BW10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2918,11 +2980,14 @@
       <c r="BU11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BV11" s="6" t="s">
+      <c r="BV11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3145,8 +3210,11 @@
       <c r="BV12" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BW12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3369,8 +3437,11 @@
       <c r="BV13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3593,8 +3664,11 @@
       <c r="BV14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3817,8 +3891,11 @@
       <c r="BV15" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BW15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4041,8 +4118,11 @@
       <c r="BV16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW16" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4265,8 +4345,11 @@
       <c r="BV17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW17" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4489,8 +4572,11 @@
       <c r="BV18" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="BW18" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4708,13 +4794,16 @@
         <v>36</v>
       </c>
       <c r="BU19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BV19" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="BW19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4937,8 +5026,11 @@
       <c r="BV20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW20" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5161,8 +5253,11 @@
       <c r="BV21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5385,8 +5480,11 @@
       <c r="BV22" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BW22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5609,8 +5707,11 @@
       <c r="BV23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW23" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5833,8 +5934,11 @@
       <c r="BV24" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BW24" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6057,8 +6161,11 @@
       <c r="BV25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -6281,8 +6388,11 @@
       <c r="BV26" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BW26" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6505,8 +6615,11 @@
       <c r="BV27" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6726,11 +6839,14 @@
       <c r="BU28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BV28" s="6" t="s">
-        <v>35</v>
+      <c r="BV28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW28" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -6953,8 +7069,11 @@
       <c r="BV29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -7177,8 +7296,11 @@
       <c r="BV30" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW30" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -7392,14 +7514,17 @@
       <c r="BS31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BT31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU31" s="8" t="s">
+      <c r="BT31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="BV31" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="BW31" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
@@ -7413,7 +7538,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 A1:BS2 BT1:XFD1048576 BC3:BR31">
+  <conditionalFormatting sqref="A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 A1:BS2 BC3:BR31 BT1:XFD1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192DC83B-D39A-45F9-85FE-13CDFDFCF6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E897BC-1C20-4702-9192-D841B8E3313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -574,13 +574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB38"/>
+  <dimension ref="A1:DA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW30" sqref="BW30"/>
+      <selection pane="bottomRight" activeCell="BZ11" sqref="BZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
     <col min="76" max="80" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -858,7 +858,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1324,8 +1324,40 @@
       <c r="BW3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1549,8 +1581,40 @@
       <c r="BW4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="BX4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
     </row>
-    <row r="5" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1701,8 +1765,37 @@
         <v>38</v>
       </c>
       <c r="BV5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
     </row>
-    <row r="6" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1853,8 +1946,37 @@
         <v>38</v>
       </c>
       <c r="BV6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2080,8 +2202,40 @@
       <c r="BW7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
+      <c r="CV7" s="4"/>
+      <c r="CW7" s="4"/>
+      <c r="CX7" s="4"/>
+      <c r="CY7" s="4"/>
+      <c r="CZ7" s="4"/>
+      <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2305,8 +2459,40 @@
       <c r="BW8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
+      <c r="CQ8" s="4"/>
+      <c r="CR8" s="4"/>
+      <c r="CS8" s="4"/>
+      <c r="CT8" s="4"/>
+      <c r="CU8" s="4"/>
+      <c r="CV8" s="4"/>
+      <c r="CW8" s="4"/>
+      <c r="CX8" s="4"/>
+      <c r="CY8" s="4"/>
+      <c r="CZ8" s="4"/>
+      <c r="DA8" s="4"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2532,8 +2718,40 @@
       <c r="BW9" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+      <c r="CF9" s="4"/>
+      <c r="CG9" s="4"/>
+      <c r="CH9" s="4"/>
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4"/>
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4"/>
+      <c r="CM9" s="4"/>
+      <c r="CN9" s="4"/>
+      <c r="CO9" s="4"/>
+      <c r="CP9" s="4"/>
+      <c r="CQ9" s="4"/>
+      <c r="CR9" s="4"/>
+      <c r="CS9" s="4"/>
+      <c r="CT9" s="4"/>
+      <c r="CU9" s="4"/>
+      <c r="CV9" s="4"/>
+      <c r="CW9" s="4"/>
+      <c r="CX9" s="4"/>
+      <c r="CY9" s="4"/>
+      <c r="CZ9" s="4"/>
+      <c r="DA9" s="4"/>
     </row>
-    <row r="10" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2759,8 +2977,40 @@
       <c r="BW10" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="CT10" s="4"/>
+      <c r="CU10" s="4"/>
+      <c r="CV10" s="4"/>
+      <c r="CW10" s="4"/>
+      <c r="CX10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="4"/>
+      <c r="DA10" s="4"/>
     </row>
-    <row r="11" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3236,40 @@
       <c r="BW11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
+      <c r="CH11" s="4"/>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4"/>
+      <c r="CK11" s="4"/>
+      <c r="CL11" s="4"/>
+      <c r="CM11" s="4"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="4"/>
+      <c r="CP11" s="4"/>
+      <c r="CQ11" s="4"/>
+      <c r="CR11" s="4"/>
+      <c r="CS11" s="4"/>
+      <c r="CT11" s="4"/>
+      <c r="CU11" s="4"/>
+      <c r="CV11" s="4"/>
+      <c r="CW11" s="4"/>
+      <c r="CX11" s="4"/>
+      <c r="CY11" s="4"/>
+      <c r="CZ11" s="4"/>
+      <c r="DA11" s="4"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3213,8 +3495,40 @@
       <c r="BW12" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="4"/>
+      <c r="CP12" s="4"/>
+      <c r="CQ12" s="4"/>
+      <c r="CR12" s="4"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="4"/>
+      <c r="CU12" s="4"/>
+      <c r="CV12" s="4"/>
+      <c r="CW12" s="4"/>
+      <c r="CX12" s="4"/>
+      <c r="CY12" s="4"/>
+      <c r="CZ12" s="4"/>
+      <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3440,8 +3754,40 @@
       <c r="BW13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
+      <c r="CS13" s="4"/>
+      <c r="CT13" s="4"/>
+      <c r="CU13" s="4"/>
+      <c r="CV13" s="4"/>
+      <c r="CW13" s="4"/>
+      <c r="CX13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="4"/>
+      <c r="DA13" s="4"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3667,8 +4013,40 @@
       <c r="BW14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
+      <c r="CS14" s="4"/>
+      <c r="CT14" s="4"/>
+      <c r="CU14" s="4"/>
+      <c r="CV14" s="4"/>
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4"/>
+      <c r="CY14" s="4"/>
+      <c r="CZ14" s="4"/>
+      <c r="DA14" s="4"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3894,8 +4272,40 @@
       <c r="BW15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="4"/>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="4"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4"/>
+      <c r="CM15" s="4"/>
+      <c r="CN15" s="4"/>
+      <c r="CO15" s="4"/>
+      <c r="CP15" s="4"/>
+      <c r="CQ15" s="4"/>
+      <c r="CR15" s="4"/>
+      <c r="CS15" s="4"/>
+      <c r="CT15" s="4"/>
+      <c r="CU15" s="4"/>
+      <c r="CV15" s="4"/>
+      <c r="CW15" s="4"/>
+      <c r="CX15" s="4"/>
+      <c r="CY15" s="4"/>
+      <c r="CZ15" s="4"/>
+      <c r="DA15" s="4"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4121,8 +4531,40 @@
       <c r="BW16" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
+      <c r="CT16" s="4"/>
+      <c r="CU16" s="4"/>
+      <c r="CV16" s="4"/>
+      <c r="CW16" s="4"/>
+      <c r="CX16" s="4"/>
+      <c r="CY16" s="4"/>
+      <c r="CZ16" s="4"/>
+      <c r="DA16" s="4"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4348,8 +4790,40 @@
       <c r="BW17" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+      <c r="CF17" s="4"/>
+      <c r="CG17" s="4"/>
+      <c r="CH17" s="4"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="4"/>
+      <c r="CK17" s="4"/>
+      <c r="CL17" s="4"/>
+      <c r="CM17" s="4"/>
+      <c r="CN17" s="4"/>
+      <c r="CO17" s="4"/>
+      <c r="CP17" s="4"/>
+      <c r="CQ17" s="4"/>
+      <c r="CR17" s="4"/>
+      <c r="CS17" s="4"/>
+      <c r="CT17" s="4"/>
+      <c r="CU17" s="4"/>
+      <c r="CV17" s="4"/>
+      <c r="CW17" s="4"/>
+      <c r="CX17" s="4"/>
+      <c r="CY17" s="4"/>
+      <c r="CZ17" s="4"/>
+      <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4575,8 +5049,40 @@
       <c r="BW18" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+      <c r="CF18" s="4"/>
+      <c r="CG18" s="4"/>
+      <c r="CH18" s="4"/>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="4"/>
+      <c r="CK18" s="4"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="4"/>
+      <c r="CN18" s="4"/>
+      <c r="CO18" s="4"/>
+      <c r="CP18" s="4"/>
+      <c r="CQ18" s="4"/>
+      <c r="CR18" s="4"/>
+      <c r="CS18" s="4"/>
+      <c r="CT18" s="4"/>
+      <c r="CU18" s="4"/>
+      <c r="CV18" s="4"/>
+      <c r="CW18" s="4"/>
+      <c r="CX18" s="4"/>
+      <c r="CY18" s="4"/>
+      <c r="CZ18" s="4"/>
+      <c r="DA18" s="4"/>
     </row>
-    <row r="19" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4802,8 +5308,40 @@
       <c r="BW19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+      <c r="CA19" s="4"/>
+      <c r="CB19" s="4"/>
+      <c r="CC19" s="4"/>
+      <c r="CD19" s="4"/>
+      <c r="CE19" s="4"/>
+      <c r="CF19" s="4"/>
+      <c r="CG19" s="4"/>
+      <c r="CH19" s="4"/>
+      <c r="CI19" s="4"/>
+      <c r="CJ19" s="4"/>
+      <c r="CK19" s="4"/>
+      <c r="CL19" s="4"/>
+      <c r="CM19" s="4"/>
+      <c r="CN19" s="4"/>
+      <c r="CO19" s="4"/>
+      <c r="CP19" s="4"/>
+      <c r="CQ19" s="4"/>
+      <c r="CR19" s="4"/>
+      <c r="CS19" s="4"/>
+      <c r="CT19" s="4"/>
+      <c r="CU19" s="4"/>
+      <c r="CV19" s="4"/>
+      <c r="CW19" s="4"/>
+      <c r="CX19" s="4"/>
+      <c r="CY19" s="4"/>
+      <c r="CZ19" s="4"/>
+      <c r="DA19" s="4"/>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5029,8 +5567,40 @@
       <c r="BW20" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BX20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="4"/>
+      <c r="CA20" s="4"/>
+      <c r="CB20" s="4"/>
+      <c r="CC20" s="4"/>
+      <c r="CD20" s="4"/>
+      <c r="CE20" s="4"/>
+      <c r="CF20" s="4"/>
+      <c r="CG20" s="4"/>
+      <c r="CH20" s="4"/>
+      <c r="CI20" s="4"/>
+      <c r="CJ20" s="4"/>
+      <c r="CK20" s="4"/>
+      <c r="CL20" s="4"/>
+      <c r="CM20" s="4"/>
+      <c r="CN20" s="4"/>
+      <c r="CO20" s="4"/>
+      <c r="CP20" s="4"/>
+      <c r="CQ20" s="4"/>
+      <c r="CR20" s="4"/>
+      <c r="CS20" s="4"/>
+      <c r="CT20" s="4"/>
+      <c r="CU20" s="4"/>
+      <c r="CV20" s="4"/>
+      <c r="CW20" s="4"/>
+      <c r="CX20" s="4"/>
+      <c r="CY20" s="4"/>
+      <c r="CZ20" s="4"/>
+      <c r="DA20" s="4"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5256,8 +5826,40 @@
       <c r="BW21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY21" s="4"/>
+      <c r="BZ21" s="4"/>
+      <c r="CA21" s="4"/>
+      <c r="CB21" s="4"/>
+      <c r="CC21" s="4"/>
+      <c r="CD21" s="4"/>
+      <c r="CE21" s="4"/>
+      <c r="CF21" s="4"/>
+      <c r="CG21" s="4"/>
+      <c r="CH21" s="4"/>
+      <c r="CI21" s="4"/>
+      <c r="CJ21" s="4"/>
+      <c r="CK21" s="4"/>
+      <c r="CL21" s="4"/>
+      <c r="CM21" s="4"/>
+      <c r="CN21" s="4"/>
+      <c r="CO21" s="4"/>
+      <c r="CP21" s="4"/>
+      <c r="CQ21" s="4"/>
+      <c r="CR21" s="4"/>
+      <c r="CS21" s="4"/>
+      <c r="CT21" s="4"/>
+      <c r="CU21" s="4"/>
+      <c r="CV21" s="4"/>
+      <c r="CW21" s="4"/>
+      <c r="CX21" s="4"/>
+      <c r="CY21" s="4"/>
+      <c r="CZ21" s="4"/>
+      <c r="DA21" s="4"/>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5483,8 +6085,40 @@
       <c r="BW22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="4"/>
+      <c r="CA22" s="4"/>
+      <c r="CB22" s="4"/>
+      <c r="CC22" s="4"/>
+      <c r="CD22" s="4"/>
+      <c r="CE22" s="4"/>
+      <c r="CF22" s="4"/>
+      <c r="CG22" s="4"/>
+      <c r="CH22" s="4"/>
+      <c r="CI22" s="4"/>
+      <c r="CJ22" s="4"/>
+      <c r="CK22" s="4"/>
+      <c r="CL22" s="4"/>
+      <c r="CM22" s="4"/>
+      <c r="CN22" s="4"/>
+      <c r="CO22" s="4"/>
+      <c r="CP22" s="4"/>
+      <c r="CQ22" s="4"/>
+      <c r="CR22" s="4"/>
+      <c r="CS22" s="4"/>
+      <c r="CT22" s="4"/>
+      <c r="CU22" s="4"/>
+      <c r="CV22" s="4"/>
+      <c r="CW22" s="4"/>
+      <c r="CX22" s="4"/>
+      <c r="CY22" s="4"/>
+      <c r="CZ22" s="4"/>
+      <c r="DA22" s="4"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5710,8 +6344,40 @@
       <c r="BW23" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY23" s="4"/>
+      <c r="BZ23" s="4"/>
+      <c r="CA23" s="4"/>
+      <c r="CB23" s="4"/>
+      <c r="CC23" s="4"/>
+      <c r="CD23" s="4"/>
+      <c r="CE23" s="4"/>
+      <c r="CF23" s="4"/>
+      <c r="CG23" s="4"/>
+      <c r="CH23" s="4"/>
+      <c r="CI23" s="4"/>
+      <c r="CJ23" s="4"/>
+      <c r="CK23" s="4"/>
+      <c r="CL23" s="4"/>
+      <c r="CM23" s="4"/>
+      <c r="CN23" s="4"/>
+      <c r="CO23" s="4"/>
+      <c r="CP23" s="4"/>
+      <c r="CQ23" s="4"/>
+      <c r="CR23" s="4"/>
+      <c r="CS23" s="4"/>
+      <c r="CT23" s="4"/>
+      <c r="CU23" s="4"/>
+      <c r="CV23" s="4"/>
+      <c r="CW23" s="4"/>
+      <c r="CX23" s="4"/>
+      <c r="CY23" s="4"/>
+      <c r="CZ23" s="4"/>
+      <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5937,8 +6603,40 @@
       <c r="BW24" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY24" s="4"/>
+      <c r="BZ24" s="4"/>
+      <c r="CA24" s="4"/>
+      <c r="CB24" s="4"/>
+      <c r="CC24" s="4"/>
+      <c r="CD24" s="4"/>
+      <c r="CE24" s="4"/>
+      <c r="CF24" s="4"/>
+      <c r="CG24" s="4"/>
+      <c r="CH24" s="4"/>
+      <c r="CI24" s="4"/>
+      <c r="CJ24" s="4"/>
+      <c r="CK24" s="4"/>
+      <c r="CL24" s="4"/>
+      <c r="CM24" s="4"/>
+      <c r="CN24" s="4"/>
+      <c r="CO24" s="4"/>
+      <c r="CP24" s="4"/>
+      <c r="CQ24" s="4"/>
+      <c r="CR24" s="4"/>
+      <c r="CS24" s="4"/>
+      <c r="CT24" s="4"/>
+      <c r="CU24" s="4"/>
+      <c r="CV24" s="4"/>
+      <c r="CW24" s="4"/>
+      <c r="CX24" s="4"/>
+      <c r="CY24" s="4"/>
+      <c r="CZ24" s="4"/>
+      <c r="DA24" s="4"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6164,8 +6862,40 @@
       <c r="BW25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY25" s="4"/>
+      <c r="BZ25" s="4"/>
+      <c r="CA25" s="4"/>
+      <c r="CB25" s="4"/>
+      <c r="CC25" s="4"/>
+      <c r="CD25" s="4"/>
+      <c r="CE25" s="4"/>
+      <c r="CF25" s="4"/>
+      <c r="CG25" s="4"/>
+      <c r="CH25" s="4"/>
+      <c r="CI25" s="4"/>
+      <c r="CJ25" s="4"/>
+      <c r="CK25" s="4"/>
+      <c r="CL25" s="4"/>
+      <c r="CM25" s="4"/>
+      <c r="CN25" s="4"/>
+      <c r="CO25" s="4"/>
+      <c r="CP25" s="4"/>
+      <c r="CQ25" s="4"/>
+      <c r="CR25" s="4"/>
+      <c r="CS25" s="4"/>
+      <c r="CT25" s="4"/>
+      <c r="CU25" s="4"/>
+      <c r="CV25" s="4"/>
+      <c r="CW25" s="4"/>
+      <c r="CX25" s="4"/>
+      <c r="CY25" s="4"/>
+      <c r="CZ25" s="4"/>
+      <c r="DA25" s="4"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -6391,8 +7121,40 @@
       <c r="BW26" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY26" s="4"/>
+      <c r="BZ26" s="4"/>
+      <c r="CA26" s="4"/>
+      <c r="CB26" s="4"/>
+      <c r="CC26" s="4"/>
+      <c r="CD26" s="4"/>
+      <c r="CE26" s="4"/>
+      <c r="CF26" s="4"/>
+      <c r="CG26" s="4"/>
+      <c r="CH26" s="4"/>
+      <c r="CI26" s="4"/>
+      <c r="CJ26" s="4"/>
+      <c r="CK26" s="4"/>
+      <c r="CL26" s="4"/>
+      <c r="CM26" s="4"/>
+      <c r="CN26" s="4"/>
+      <c r="CO26" s="4"/>
+      <c r="CP26" s="4"/>
+      <c r="CQ26" s="4"/>
+      <c r="CR26" s="4"/>
+      <c r="CS26" s="4"/>
+      <c r="CT26" s="4"/>
+      <c r="CU26" s="4"/>
+      <c r="CV26" s="4"/>
+      <c r="CW26" s="4"/>
+      <c r="CX26" s="4"/>
+      <c r="CY26" s="4"/>
+      <c r="CZ26" s="4"/>
+      <c r="DA26" s="4"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6618,8 +7380,40 @@
       <c r="BW27" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY27" s="4"/>
+      <c r="BZ27" s="4"/>
+      <c r="CA27" s="4"/>
+      <c r="CB27" s="4"/>
+      <c r="CC27" s="4"/>
+      <c r="CD27" s="4"/>
+      <c r="CE27" s="4"/>
+      <c r="CF27" s="4"/>
+      <c r="CG27" s="4"/>
+      <c r="CH27" s="4"/>
+      <c r="CI27" s="4"/>
+      <c r="CJ27" s="4"/>
+      <c r="CK27" s="4"/>
+      <c r="CL27" s="4"/>
+      <c r="CM27" s="4"/>
+      <c r="CN27" s="4"/>
+      <c r="CO27" s="4"/>
+      <c r="CP27" s="4"/>
+      <c r="CQ27" s="4"/>
+      <c r="CR27" s="4"/>
+      <c r="CS27" s="4"/>
+      <c r="CT27" s="4"/>
+      <c r="CU27" s="4"/>
+      <c r="CV27" s="4"/>
+      <c r="CW27" s="4"/>
+      <c r="CX27" s="4"/>
+      <c r="CY27" s="4"/>
+      <c r="CZ27" s="4"/>
+      <c r="DA27" s="4"/>
     </row>
-    <row r="28" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6845,8 +7639,40 @@
       <c r="BW28" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY28" s="4"/>
+      <c r="BZ28" s="4"/>
+      <c r="CA28" s="4"/>
+      <c r="CB28" s="4"/>
+      <c r="CC28" s="4"/>
+      <c r="CD28" s="4"/>
+      <c r="CE28" s="4"/>
+      <c r="CF28" s="4"/>
+      <c r="CG28" s="4"/>
+      <c r="CH28" s="4"/>
+      <c r="CI28" s="4"/>
+      <c r="CJ28" s="4"/>
+      <c r="CK28" s="4"/>
+      <c r="CL28" s="4"/>
+      <c r="CM28" s="4"/>
+      <c r="CN28" s="4"/>
+      <c r="CO28" s="4"/>
+      <c r="CP28" s="4"/>
+      <c r="CQ28" s="4"/>
+      <c r="CR28" s="4"/>
+      <c r="CS28" s="4"/>
+      <c r="CT28" s="4"/>
+      <c r="CU28" s="4"/>
+      <c r="CV28" s="4"/>
+      <c r="CW28" s="4"/>
+      <c r="CX28" s="4"/>
+      <c r="CY28" s="4"/>
+      <c r="CZ28" s="4"/>
+      <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -7072,8 +7898,40 @@
       <c r="BW29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY29" s="4"/>
+      <c r="BZ29" s="4"/>
+      <c r="CA29" s="4"/>
+      <c r="CB29" s="4"/>
+      <c r="CC29" s="4"/>
+      <c r="CD29" s="4"/>
+      <c r="CE29" s="4"/>
+      <c r="CF29" s="4"/>
+      <c r="CG29" s="4"/>
+      <c r="CH29" s="4"/>
+      <c r="CI29" s="4"/>
+      <c r="CJ29" s="4"/>
+      <c r="CK29" s="4"/>
+      <c r="CL29" s="4"/>
+      <c r="CM29" s="4"/>
+      <c r="CN29" s="4"/>
+      <c r="CO29" s="4"/>
+      <c r="CP29" s="4"/>
+      <c r="CQ29" s="4"/>
+      <c r="CR29" s="4"/>
+      <c r="CS29" s="4"/>
+      <c r="CT29" s="4"/>
+      <c r="CU29" s="4"/>
+      <c r="CV29" s="4"/>
+      <c r="CW29" s="4"/>
+      <c r="CX29" s="4"/>
+      <c r="CY29" s="4"/>
+      <c r="CZ29" s="4"/>
+      <c r="DA29" s="4"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -7299,8 +8157,40 @@
       <c r="BW30" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY30" s="4"/>
+      <c r="BZ30" s="4"/>
+      <c r="CA30" s="4"/>
+      <c r="CB30" s="4"/>
+      <c r="CC30" s="4"/>
+      <c r="CD30" s="4"/>
+      <c r="CE30" s="4"/>
+      <c r="CF30" s="4"/>
+      <c r="CG30" s="4"/>
+      <c r="CH30" s="4"/>
+      <c r="CI30" s="4"/>
+      <c r="CJ30" s="4"/>
+      <c r="CK30" s="4"/>
+      <c r="CL30" s="4"/>
+      <c r="CM30" s="4"/>
+      <c r="CN30" s="4"/>
+      <c r="CO30" s="4"/>
+      <c r="CP30" s="4"/>
+      <c r="CQ30" s="4"/>
+      <c r="CR30" s="4"/>
+      <c r="CS30" s="4"/>
+      <c r="CT30" s="4"/>
+      <c r="CU30" s="4"/>
+      <c r="CV30" s="4"/>
+      <c r="CW30" s="4"/>
+      <c r="CX30" s="4"/>
+      <c r="CY30" s="4"/>
+      <c r="CZ30" s="4"/>
+      <c r="DA30" s="4"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -7526,6 +8416,38 @@
       <c r="BW31" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="BX31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY31" s="4"/>
+      <c r="BZ31" s="4"/>
+      <c r="CA31" s="4"/>
+      <c r="CB31" s="4"/>
+      <c r="CC31" s="4"/>
+      <c r="CD31" s="4"/>
+      <c r="CE31" s="4"/>
+      <c r="CF31" s="4"/>
+      <c r="CG31" s="4"/>
+      <c r="CH31" s="4"/>
+      <c r="CI31" s="4"/>
+      <c r="CJ31" s="4"/>
+      <c r="CK31" s="4"/>
+      <c r="CL31" s="4"/>
+      <c r="CM31" s="4"/>
+      <c r="CN31" s="4"/>
+      <c r="CO31" s="4"/>
+      <c r="CP31" s="4"/>
+      <c r="CQ31" s="4"/>
+      <c r="CR31" s="4"/>
+      <c r="CS31" s="4"/>
+      <c r="CT31" s="4"/>
+      <c r="CU31" s="4"/>
+      <c r="CV31" s="4"/>
+      <c r="CW31" s="4"/>
+      <c r="CX31" s="4"/>
+      <c r="CY31" s="4"/>
+      <c r="CZ31" s="4"/>
+      <c r="DA31" s="4"/>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG38" s="5"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E897BC-1C20-4702-9192-D841B8E3313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B86692-C4B6-481E-91D9-D098F37993F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ11" sqref="BZ11"/>
+      <selection pane="bottomRight" activeCell="BY28" sqref="BY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1327,9 @@
       <c r="BX3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY3" s="4"/>
+      <c r="BY3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ3" s="4"/>
       <c r="CA3" s="4"/>
       <c r="CB3" s="4"/>
@@ -1584,7 +1586,9 @@
       <c r="BX4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY4" s="4"/>
+      <c r="BY4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="BZ4" s="4"/>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
@@ -2205,7 +2209,9 @@
       <c r="BX7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY7" s="4"/>
+      <c r="BY7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="BZ7" s="4"/>
       <c r="CA7" s="4"/>
       <c r="CB7" s="4"/>
@@ -2462,7 +2468,9 @@
       <c r="BX8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY8" s="4"/>
+      <c r="BY8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ8" s="4"/>
       <c r="CA8" s="4"/>
       <c r="CB8" s="4"/>
@@ -2721,7 +2729,9 @@
       <c r="BX9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY9" s="4"/>
+      <c r="BY9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ9" s="4"/>
       <c r="CA9" s="4"/>
       <c r="CB9" s="4"/>
@@ -2980,7 +2990,9 @@
       <c r="BX10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY10" s="4"/>
+      <c r="BY10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="BZ10" s="4"/>
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
@@ -3239,7 +3251,9 @@
       <c r="BX11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY11" s="4"/>
+      <c r="BY11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="BZ11" s="4"/>
       <c r="CA11" s="4"/>
       <c r="CB11" s="4"/>
@@ -3498,7 +3512,9 @@
       <c r="BX12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY12" s="4"/>
+      <c r="BY12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="BZ12" s="4"/>
       <c r="CA12" s="4"/>
       <c r="CB12" s="4"/>
@@ -3757,7 +3773,9 @@
       <c r="BX13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY13" s="4"/>
+      <c r="BY13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ13" s="4"/>
       <c r="CA13" s="4"/>
       <c r="CB13" s="4"/>
@@ -4016,7 +4034,9 @@
       <c r="BX14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY14" s="4"/>
+      <c r="BY14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ14" s="4"/>
       <c r="CA14" s="4"/>
       <c r="CB14" s="4"/>
@@ -4275,7 +4295,9 @@
       <c r="BX15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY15" s="4"/>
+      <c r="BY15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ15" s="4"/>
       <c r="CA15" s="4"/>
       <c r="CB15" s="4"/>
@@ -4534,7 +4556,9 @@
       <c r="BX16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY16" s="4"/>
+      <c r="BY16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ16" s="4"/>
       <c r="CA16" s="4"/>
       <c r="CB16" s="4"/>
@@ -4793,7 +4817,9 @@
       <c r="BX17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY17" s="4"/>
+      <c r="BY17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ17" s="4"/>
       <c r="CA17" s="4"/>
       <c r="CB17" s="4"/>
@@ -5052,7 +5078,9 @@
       <c r="BX18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY18" s="4"/>
+      <c r="BY18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ18" s="4"/>
       <c r="CA18" s="4"/>
       <c r="CB18" s="4"/>
@@ -5311,7 +5339,9 @@
       <c r="BX19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY19" s="4"/>
+      <c r="BY19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ19" s="4"/>
       <c r="CA19" s="4"/>
       <c r="CB19" s="4"/>
@@ -5570,7 +5600,9 @@
       <c r="BX20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY20" s="4"/>
+      <c r="BY20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ20" s="4"/>
       <c r="CA20" s="4"/>
       <c r="CB20" s="4"/>
@@ -5829,7 +5861,9 @@
       <c r="BX21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY21" s="4"/>
+      <c r="BY21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4"/>
@@ -6088,7 +6122,9 @@
       <c r="BX22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY22" s="4"/>
+      <c r="BY22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ22" s="4"/>
       <c r="CA22" s="4"/>
       <c r="CB22" s="4"/>
@@ -6347,7 +6383,9 @@
       <c r="BX23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY23" s="4"/>
+      <c r="BY23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ23" s="4"/>
       <c r="CA23" s="4"/>
       <c r="CB23" s="4"/>
@@ -6606,7 +6644,9 @@
       <c r="BX24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY24" s="4"/>
+      <c r="BY24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ24" s="4"/>
       <c r="CA24" s="4"/>
       <c r="CB24" s="4"/>
@@ -6865,7 +6905,9 @@
       <c r="BX25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY25" s="4"/>
+      <c r="BY25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ25" s="4"/>
       <c r="CA25" s="4"/>
       <c r="CB25" s="4"/>
@@ -7124,7 +7166,9 @@
       <c r="BX26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY26" s="4"/>
+      <c r="BY26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ26" s="4"/>
       <c r="CA26" s="4"/>
       <c r="CB26" s="4"/>
@@ -7383,7 +7427,9 @@
       <c r="BX27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BY27" s="4"/>
+      <c r="BY27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ27" s="4"/>
       <c r="CA27" s="4"/>
       <c r="CB27" s="4"/>
@@ -7642,7 +7688,9 @@
       <c r="BX28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY28" s="4"/>
+      <c r="BY28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ28" s="4"/>
       <c r="CA28" s="4"/>
       <c r="CB28" s="4"/>
@@ -7901,7 +7949,9 @@
       <c r="BX29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY29" s="4"/>
+      <c r="BY29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ29" s="4"/>
       <c r="CA29" s="4"/>
       <c r="CB29" s="4"/>
@@ -8160,7 +8210,9 @@
       <c r="BX30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY30" s="4"/>
+      <c r="BY30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ30" s="4"/>
       <c r="CA30" s="4"/>
       <c r="CB30" s="4"/>
@@ -8419,7 +8471,9 @@
       <c r="BX31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BY31" s="4"/>
+      <c r="BY31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="BZ31" s="4"/>
       <c r="CA31" s="4"/>
       <c r="CB31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B86692-C4B6-481E-91D9-D098F37993F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C5A72-F472-4F79-BE84-0C536BE1FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BY28" sqref="BY28"/>
+      <selection pane="bottomRight" activeCell="BZ30" sqref="BZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,9 @@
       <c r="BY3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ3" s="4"/>
+      <c r="BZ3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA3" s="4"/>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
@@ -1589,7 +1591,9 @@
       <c r="BY4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ4" s="4"/>
+      <c r="BZ4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
@@ -2212,7 +2216,9 @@
       <c r="BY7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ7" s="4"/>
+      <c r="BZ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA7" s="4"/>
       <c r="CB7" s="4"/>
       <c r="CC7" s="4"/>
@@ -2471,7 +2477,9 @@
       <c r="BY8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="4"/>
+      <c r="BZ8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA8" s="4"/>
       <c r="CB8" s="4"/>
       <c r="CC8" s="4"/>
@@ -2732,7 +2740,9 @@
       <c r="BY9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ9" s="4"/>
+      <c r="BZ9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA9" s="4"/>
       <c r="CB9" s="4"/>
       <c r="CC9" s="4"/>
@@ -2993,7 +3003,9 @@
       <c r="BY10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ10" s="4"/>
+      <c r="BZ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CC10" s="4"/>
@@ -3254,7 +3266,9 @@
       <c r="BY11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ11" s="4"/>
+      <c r="BZ11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CC11" s="4"/>
@@ -3515,7 +3529,9 @@
       <c r="BY12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ12" s="4"/>
+      <c r="BZ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA12" s="4"/>
       <c r="CB12" s="4"/>
       <c r="CC12" s="4"/>
@@ -3776,7 +3792,9 @@
       <c r="BY13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ13" s="4"/>
+      <c r="BZ13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
@@ -4037,7 +4055,9 @@
       <c r="BY14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ14" s="4"/>
+      <c r="BZ14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA14" s="4"/>
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
@@ -4298,7 +4318,9 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ15" s="4"/>
+      <c r="BZ15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA15" s="4"/>
       <c r="CB15" s="4"/>
       <c r="CC15" s="4"/>
@@ -4559,7 +4581,9 @@
       <c r="BY16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ16" s="4"/>
+      <c r="BZ16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA16" s="4"/>
       <c r="CB16" s="4"/>
       <c r="CC16" s="4"/>
@@ -4820,7 +4844,9 @@
       <c r="BY17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ17" s="4"/>
+      <c r="BZ17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CC17" s="4"/>
@@ -5081,7 +5107,9 @@
       <c r="BY18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ18" s="4"/>
+      <c r="BZ18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA18" s="4"/>
       <c r="CB18" s="4"/>
       <c r="CC18" s="4"/>
@@ -5342,7 +5370,9 @@
       <c r="BY19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ19" s="4"/>
+      <c r="BZ19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA19" s="4"/>
       <c r="CB19" s="4"/>
       <c r="CC19" s="4"/>
@@ -5603,7 +5633,9 @@
       <c r="BY20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ20" s="4"/>
+      <c r="BZ20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA20" s="4"/>
       <c r="CB20" s="4"/>
       <c r="CC20" s="4"/>
@@ -5864,7 +5896,9 @@
       <c r="BY21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ21" s="4"/>
+      <c r="BZ21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4"/>
       <c r="CC21" s="4"/>
@@ -6125,7 +6159,9 @@
       <c r="BY22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ22" s="4"/>
+      <c r="BZ22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA22" s="4"/>
       <c r="CB22" s="4"/>
       <c r="CC22" s="4"/>
@@ -6386,7 +6422,9 @@
       <c r="BY23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ23" s="4"/>
+      <c r="BZ23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA23" s="4"/>
       <c r="CB23" s="4"/>
       <c r="CC23" s="4"/>
@@ -6647,7 +6685,9 @@
       <c r="BY24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ24" s="4"/>
+      <c r="BZ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CA24" s="4"/>
       <c r="CB24" s="4"/>
       <c r="CC24" s="4"/>
@@ -6908,7 +6948,9 @@
       <c r="BY25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ25" s="4"/>
+      <c r="BZ25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA25" s="4"/>
       <c r="CB25" s="4"/>
       <c r="CC25" s="4"/>
@@ -7169,7 +7211,9 @@
       <c r="BY26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ26" s="4"/>
+      <c r="BZ26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA26" s="4"/>
       <c r="CB26" s="4"/>
       <c r="CC26" s="4"/>
@@ -7430,7 +7474,9 @@
       <c r="BY27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ27" s="4"/>
+      <c r="BZ27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
@@ -7691,7 +7737,9 @@
       <c r="BY28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ28" s="4"/>
+      <c r="BZ28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA28" s="4"/>
       <c r="CB28" s="4"/>
       <c r="CC28" s="4"/>
@@ -7952,7 +8000,9 @@
       <c r="BY29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ29" s="4"/>
+      <c r="BZ29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA29" s="4"/>
       <c r="CB29" s="4"/>
       <c r="CC29" s="4"/>
@@ -8213,7 +8263,9 @@
       <c r="BY30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ30" s="4"/>
+      <c r="BZ30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA30" s="4"/>
       <c r="CB30" s="4"/>
       <c r="CC30" s="4"/>
@@ -8474,7 +8526,9 @@
       <c r="BY31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BZ31" s="4"/>
+      <c r="BZ31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CA31" s="4"/>
       <c r="CB31" s="4"/>
       <c r="CC31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C5A72-F472-4F79-BE84-0C536BE1FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFDCF1-E62A-48D2-8C98-7E0CC27D0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ30" sqref="BZ30"/>
+      <selection pane="bottomRight" activeCell="CA31" sqref="CA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,9 @@
       <c r="BZ3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA3" s="4"/>
+      <c r="CA3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
       <c r="CD3" s="4"/>
@@ -1594,7 +1596,9 @@
       <c r="BZ4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA4" s="4"/>
+      <c r="CA4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
       <c r="CD4" s="4"/>
@@ -2219,7 +2223,9 @@
       <c r="BZ7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA7" s="4"/>
+      <c r="CA7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB7" s="4"/>
       <c r="CC7" s="4"/>
       <c r="CD7" s="4"/>
@@ -2480,7 +2486,9 @@
       <c r="BZ8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA8" s="4"/>
+      <c r="CA8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB8" s="4"/>
       <c r="CC8" s="4"/>
       <c r="CD8" s="4"/>
@@ -2743,7 +2751,9 @@
       <c r="BZ9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA9" s="4"/>
+      <c r="CA9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB9" s="4"/>
       <c r="CC9" s="4"/>
       <c r="CD9" s="4"/>
@@ -3006,7 +3016,9 @@
       <c r="BZ10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA10" s="4"/>
+      <c r="CA10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB10" s="4"/>
       <c r="CC10" s="4"/>
       <c r="CD10" s="4"/>
@@ -3269,7 +3281,9 @@
       <c r="BZ11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA11" s="4"/>
+      <c r="CA11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB11" s="4"/>
       <c r="CC11" s="4"/>
       <c r="CD11" s="4"/>
@@ -3532,7 +3546,9 @@
       <c r="BZ12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA12" s="4"/>
+      <c r="CA12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB12" s="4"/>
       <c r="CC12" s="4"/>
       <c r="CD12" s="4"/>
@@ -3795,7 +3811,9 @@
       <c r="BZ13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA13" s="4"/>
+      <c r="CA13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CD13" s="4"/>
@@ -4058,7 +4076,9 @@
       <c r="BZ14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA14" s="4"/>
+      <c r="CA14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
       <c r="CD14" s="4"/>
@@ -4321,7 +4341,9 @@
       <c r="BZ15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA15" s="4"/>
+      <c r="CA15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CB15" s="4"/>
       <c r="CC15" s="4"/>
       <c r="CD15" s="4"/>
@@ -4584,7 +4606,9 @@
       <c r="BZ16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA16" s="4"/>
+      <c r="CA16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB16" s="4"/>
       <c r="CC16" s="4"/>
       <c r="CD16" s="4"/>
@@ -4847,7 +4871,9 @@
       <c r="BZ17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA17" s="4"/>
+      <c r="CA17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB17" s="4"/>
       <c r="CC17" s="4"/>
       <c r="CD17" s="4"/>
@@ -5110,7 +5136,9 @@
       <c r="BZ18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA18" s="4"/>
+      <c r="CA18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB18" s="4"/>
       <c r="CC18" s="4"/>
       <c r="CD18" s="4"/>
@@ -5373,7 +5401,9 @@
       <c r="BZ19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA19" s="4"/>
+      <c r="CA19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB19" s="4"/>
       <c r="CC19" s="4"/>
       <c r="CD19" s="4"/>
@@ -5636,7 +5666,9 @@
       <c r="BZ20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA20" s="4"/>
+      <c r="CA20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB20" s="4"/>
       <c r="CC20" s="4"/>
       <c r="CD20" s="4"/>
@@ -5899,7 +5931,9 @@
       <c r="BZ21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA21" s="4"/>
+      <c r="CA21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB21" s="4"/>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
@@ -6162,7 +6196,9 @@
       <c r="BZ22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA22" s="4"/>
+      <c r="CA22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB22" s="4"/>
       <c r="CC22" s="4"/>
       <c r="CD22" s="4"/>
@@ -6425,7 +6461,9 @@
       <c r="BZ23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA23" s="4"/>
+      <c r="CA23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB23" s="4"/>
       <c r="CC23" s="4"/>
       <c r="CD23" s="4"/>
@@ -6688,7 +6726,9 @@
       <c r="BZ24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CA24" s="4"/>
+      <c r="CA24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB24" s="4"/>
       <c r="CC24" s="4"/>
       <c r="CD24" s="4"/>
@@ -6951,7 +6991,9 @@
       <c r="BZ25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA25" s="4"/>
+      <c r="CA25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB25" s="4"/>
       <c r="CC25" s="4"/>
       <c r="CD25" s="4"/>
@@ -7214,7 +7256,9 @@
       <c r="BZ26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA26" s="4"/>
+      <c r="CA26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB26" s="4"/>
       <c r="CC26" s="4"/>
       <c r="CD26" s="4"/>
@@ -7477,7 +7521,9 @@
       <c r="BZ27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA27" s="4"/>
+      <c r="CA27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
       <c r="CD27" s="4"/>
@@ -7740,7 +7786,9 @@
       <c r="BZ28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA28" s="4"/>
+      <c r="CA28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB28" s="4"/>
       <c r="CC28" s="4"/>
       <c r="CD28" s="4"/>
@@ -8003,7 +8051,9 @@
       <c r="BZ29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA29" s="4"/>
+      <c r="CA29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB29" s="4"/>
       <c r="CC29" s="4"/>
       <c r="CD29" s="4"/>
@@ -8266,7 +8316,9 @@
       <c r="BZ30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA30" s="4"/>
+      <c r="CA30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB30" s="4"/>
       <c r="CC30" s="4"/>
       <c r="CD30" s="4"/>
@@ -8529,7 +8581,9 @@
       <c r="BZ31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CA31" s="4"/>
+      <c r="CA31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CB31" s="4"/>
       <c r="CC31" s="4"/>
       <c r="CD31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFDCF1-E62A-48D2-8C98-7E0CC27D0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60587F-7ADA-4AC6-912D-C75AD2BEEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,42 +580,57 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CA31" sqref="CA31"/>
+      <selection pane="bottomRight" activeCell="CB16" sqref="CB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="50" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="38" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="63" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="63" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="80" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="83" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.25">
@@ -857,6 +872,21 @@
       <c r="CB1" s="2">
         <v>45058</v>
       </c>
+      <c r="CC1" s="2">
+        <v>45061</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>45062</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>45063</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>45064</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>45065</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1099,6 +1129,21 @@
       <c r="CB2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="CC2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1336,9 +1381,15 @@
       <c r="CA3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB3" s="4"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
+      <c r="CB3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE3" s="4"/>
       <c r="CF3" s="4"/>
       <c r="CG3" s="4"/>
@@ -1599,9 +1650,15 @@
       <c r="CA4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
+      <c r="CB4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
       <c r="CG4" s="4"/>
@@ -2226,9 +2283,15 @@
       <c r="CA7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB7" s="4"/>
-      <c r="CC7" s="4"/>
-      <c r="CD7" s="4"/>
+      <c r="CB7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CE7" s="4"/>
       <c r="CF7" s="4"/>
       <c r="CG7" s="4"/>
@@ -2489,9 +2552,15 @@
       <c r="CA8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB8" s="4"/>
-      <c r="CC8" s="4"/>
-      <c r="CD8" s="4"/>
+      <c r="CB8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE8" s="4"/>
       <c r="CF8" s="4"/>
       <c r="CG8" s="4"/>
@@ -2754,9 +2823,15 @@
       <c r="CA9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB9" s="4"/>
-      <c r="CC9" s="4"/>
-      <c r="CD9" s="4"/>
+      <c r="CB9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE9" s="4"/>
       <c r="CF9" s="4"/>
       <c r="CG9" s="4"/>
@@ -3019,9 +3094,15 @@
       <c r="CA10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB10" s="4"/>
-      <c r="CC10" s="4"/>
-      <c r="CD10" s="4"/>
+      <c r="CB10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CE10" s="4"/>
       <c r="CF10" s="4"/>
       <c r="CG10" s="4"/>
@@ -3284,9 +3365,15 @@
       <c r="CA11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB11" s="4"/>
-      <c r="CC11" s="4"/>
-      <c r="CD11" s="4"/>
+      <c r="CB11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE11" s="4"/>
       <c r="CF11" s="4"/>
       <c r="CG11" s="4"/>
@@ -3549,9 +3636,15 @@
       <c r="CA12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB12" s="4"/>
-      <c r="CC12" s="4"/>
-      <c r="CD12" s="4"/>
+      <c r="CB12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CE12" s="4"/>
       <c r="CF12" s="4"/>
       <c r="CG12" s="4"/>
@@ -3814,9 +3907,15 @@
       <c r="CA13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB13" s="4"/>
-      <c r="CC13" s="4"/>
-      <c r="CD13" s="4"/>
+      <c r="CB13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE13" s="4"/>
       <c r="CF13" s="4"/>
       <c r="CG13" s="4"/>
@@ -4079,9 +4178,15 @@
       <c r="CA14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB14" s="4"/>
-      <c r="CC14" s="4"/>
-      <c r="CD14" s="4"/>
+      <c r="CB14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE14" s="4"/>
       <c r="CF14" s="4"/>
       <c r="CG14" s="4"/>
@@ -4344,9 +4449,15 @@
       <c r="CA15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CB15" s="4"/>
-      <c r="CC15" s="4"/>
-      <c r="CD15" s="4"/>
+      <c r="CB15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE15" s="4"/>
       <c r="CF15" s="4"/>
       <c r="CG15" s="4"/>
@@ -4609,9 +4720,15 @@
       <c r="CA16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB16" s="4"/>
-      <c r="CC16" s="4"/>
-      <c r="CD16" s="4"/>
+      <c r="CB16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE16" s="4"/>
       <c r="CF16" s="4"/>
       <c r="CG16" s="4"/>
@@ -4874,9 +4991,15 @@
       <c r="CA17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB17" s="4"/>
-      <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
+      <c r="CB17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE17" s="4"/>
       <c r="CF17" s="4"/>
       <c r="CG17" s="4"/>
@@ -5139,9 +5262,15 @@
       <c r="CA18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB18" s="4"/>
-      <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
+      <c r="CB18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE18" s="4"/>
       <c r="CF18" s="4"/>
       <c r="CG18" s="4"/>
@@ -5404,9 +5533,15 @@
       <c r="CA19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB19" s="4"/>
-      <c r="CC19" s="4"/>
-      <c r="CD19" s="4"/>
+      <c r="CB19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE19" s="4"/>
       <c r="CF19" s="4"/>
       <c r="CG19" s="4"/>
@@ -5669,9 +5804,15 @@
       <c r="CA20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB20" s="4"/>
-      <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
+      <c r="CB20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE20" s="4"/>
       <c r="CF20" s="4"/>
       <c r="CG20" s="4"/>
@@ -5934,9 +6075,15 @@
       <c r="CA21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB21" s="4"/>
-      <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
+      <c r="CB21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE21" s="4"/>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
@@ -6199,9 +6346,15 @@
       <c r="CA22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB22" s="4"/>
-      <c r="CC22" s="4"/>
-      <c r="CD22" s="4"/>
+      <c r="CB22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE22" s="4"/>
       <c r="CF22" s="4"/>
       <c r="CG22" s="4"/>
@@ -6464,9 +6617,15 @@
       <c r="CA23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB23" s="4"/>
-      <c r="CC23" s="4"/>
-      <c r="CD23" s="4"/>
+      <c r="CB23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE23" s="4"/>
       <c r="CF23" s="4"/>
       <c r="CG23" s="4"/>
@@ -6729,9 +6888,15 @@
       <c r="CA24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB24" s="4"/>
-      <c r="CC24" s="4"/>
-      <c r="CD24" s="4"/>
+      <c r="CB24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE24" s="4"/>
       <c r="CF24" s="4"/>
       <c r="CG24" s="4"/>
@@ -6994,9 +7159,15 @@
       <c r="CA25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB25" s="4"/>
-      <c r="CC25" s="4"/>
-      <c r="CD25" s="4"/>
+      <c r="CB25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE25" s="4"/>
       <c r="CF25" s="4"/>
       <c r="CG25" s="4"/>
@@ -7259,9 +7430,15 @@
       <c r="CA26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB26" s="4"/>
-      <c r="CC26" s="4"/>
-      <c r="CD26" s="4"/>
+      <c r="CB26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE26" s="4"/>
       <c r="CF26" s="4"/>
       <c r="CG26" s="4"/>
@@ -7524,9 +7701,15 @@
       <c r="CA27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CB27" s="4"/>
-      <c r="CC27" s="4"/>
-      <c r="CD27" s="4"/>
+      <c r="CB27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CE27" s="4"/>
       <c r="CF27" s="4"/>
       <c r="CG27" s="4"/>
@@ -7789,9 +7972,15 @@
       <c r="CA28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB28" s="4"/>
-      <c r="CC28" s="4"/>
-      <c r="CD28" s="4"/>
+      <c r="CB28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE28" s="4"/>
       <c r="CF28" s="4"/>
       <c r="CG28" s="4"/>
@@ -8054,9 +8243,15 @@
       <c r="CA29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB29" s="4"/>
-      <c r="CC29" s="4"/>
-      <c r="CD29" s="4"/>
+      <c r="CB29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE29" s="4"/>
       <c r="CF29" s="4"/>
       <c r="CG29" s="4"/>
@@ -8319,9 +8514,15 @@
       <c r="CA30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB30" s="4"/>
-      <c r="CC30" s="4"/>
-      <c r="CD30" s="4"/>
+      <c r="CB30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE30" s="4"/>
       <c r="CF30" s="4"/>
       <c r="CG30" s="4"/>
@@ -8584,9 +8785,15 @@
       <c r="CA31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CB31" s="4"/>
-      <c r="CC31" s="4"/>
-      <c r="CD31" s="4"/>
+      <c r="CB31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CD31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CE31" s="4"/>
       <c r="CF31" s="4"/>
       <c r="CG31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60587F-7ADA-4AC6-912D-C75AD2BEEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E9A1A7-8551-4ECC-B420-993ED87FFA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CB16" sqref="CB16"/>
+      <selection pane="bottomRight" activeCell="CE31" sqref="CE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,9 @@
       <c r="CD3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE3" s="4"/>
+      <c r="CE3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF3" s="4"/>
       <c r="CG3" s="4"/>
       <c r="CH3" s="4"/>
@@ -1659,7 +1661,9 @@
       <c r="CD4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE4" s="4"/>
+      <c r="CE4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF4" s="4"/>
       <c r="CG4" s="4"/>
       <c r="CH4" s="4"/>
@@ -2292,7 +2296,9 @@
       <c r="CD7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CE7" s="4"/>
+      <c r="CE7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF7" s="4"/>
       <c r="CG7" s="4"/>
       <c r="CH7" s="4"/>
@@ -2561,7 +2567,9 @@
       <c r="CD8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE8" s="4"/>
+      <c r="CE8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF8" s="4"/>
       <c r="CG8" s="4"/>
       <c r="CH8" s="4"/>
@@ -2832,7 +2840,9 @@
       <c r="CD9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE9" s="4"/>
+      <c r="CE9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF9" s="4"/>
       <c r="CG9" s="4"/>
       <c r="CH9" s="4"/>
@@ -3103,7 +3113,9 @@
       <c r="CD10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CE10" s="4"/>
+      <c r="CE10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF10" s="4"/>
       <c r="CG10" s="4"/>
       <c r="CH10" s="4"/>
@@ -3374,7 +3386,9 @@
       <c r="CD11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE11" s="4"/>
+      <c r="CE11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF11" s="4"/>
       <c r="CG11" s="4"/>
       <c r="CH11" s="4"/>
@@ -3645,7 +3659,9 @@
       <c r="CD12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CE12" s="4"/>
+      <c r="CE12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF12" s="4"/>
       <c r="CG12" s="4"/>
       <c r="CH12" s="4"/>
@@ -3916,7 +3932,9 @@
       <c r="CD13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE13" s="4"/>
+      <c r="CE13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF13" s="4"/>
       <c r="CG13" s="4"/>
       <c r="CH13" s="4"/>
@@ -4187,7 +4205,9 @@
       <c r="CD14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE14" s="4"/>
+      <c r="CE14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF14" s="4"/>
       <c r="CG14" s="4"/>
       <c r="CH14" s="4"/>
@@ -4458,7 +4478,9 @@
       <c r="CD15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE15" s="4"/>
+      <c r="CE15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF15" s="4"/>
       <c r="CG15" s="4"/>
       <c r="CH15" s="4"/>
@@ -4729,7 +4751,9 @@
       <c r="CD16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE16" s="4"/>
+      <c r="CE16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF16" s="4"/>
       <c r="CG16" s="4"/>
       <c r="CH16" s="4"/>
@@ -5000,7 +5024,9 @@
       <c r="CD17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE17" s="4"/>
+      <c r="CE17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF17" s="4"/>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
@@ -5271,7 +5297,9 @@
       <c r="CD18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE18" s="4"/>
+      <c r="CE18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF18" s="4"/>
       <c r="CG18" s="4"/>
       <c r="CH18" s="4"/>
@@ -5542,7 +5570,9 @@
       <c r="CD19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE19" s="4"/>
+      <c r="CE19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF19" s="4"/>
       <c r="CG19" s="4"/>
       <c r="CH19" s="4"/>
@@ -5813,7 +5843,9 @@
       <c r="CD20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE20" s="4"/>
+      <c r="CE20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF20" s="4"/>
       <c r="CG20" s="4"/>
       <c r="CH20" s="4"/>
@@ -6084,7 +6116,9 @@
       <c r="CD21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE21" s="4"/>
+      <c r="CE21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4"/>
@@ -6355,7 +6389,9 @@
       <c r="CD22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE22" s="4"/>
+      <c r="CE22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF22" s="4"/>
       <c r="CG22" s="4"/>
       <c r="CH22" s="4"/>
@@ -6626,7 +6662,9 @@
       <c r="CD23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE23" s="4"/>
+      <c r="CE23" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF23" s="4"/>
       <c r="CG23" s="4"/>
       <c r="CH23" s="4"/>
@@ -6897,7 +6935,9 @@
       <c r="CD24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE24" s="4"/>
+      <c r="CE24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF24" s="4"/>
       <c r="CG24" s="4"/>
       <c r="CH24" s="4"/>
@@ -7168,7 +7208,9 @@
       <c r="CD25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE25" s="4"/>
+      <c r="CE25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF25" s="4"/>
       <c r="CG25" s="4"/>
       <c r="CH25" s="4"/>
@@ -7439,7 +7481,9 @@
       <c r="CD26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE26" s="4"/>
+      <c r="CE26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF26" s="4"/>
       <c r="CG26" s="4"/>
       <c r="CH26" s="4"/>
@@ -7710,7 +7754,9 @@
       <c r="CD27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CE27" s="4"/>
+      <c r="CE27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CF27" s="4"/>
       <c r="CG27" s="4"/>
       <c r="CH27" s="4"/>
@@ -7981,7 +8027,9 @@
       <c r="CD28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE28" s="4"/>
+      <c r="CE28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF28" s="4"/>
       <c r="CG28" s="4"/>
       <c r="CH28" s="4"/>
@@ -8252,7 +8300,9 @@
       <c r="CD29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE29" s="4"/>
+      <c r="CE29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF29" s="4"/>
       <c r="CG29" s="4"/>
       <c r="CH29" s="4"/>
@@ -8523,7 +8573,9 @@
       <c r="CD30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE30" s="4"/>
+      <c r="CE30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF30" s="4"/>
       <c r="CG30" s="4"/>
       <c r="CH30" s="4"/>
@@ -8794,7 +8846,9 @@
       <c r="CD31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CE31" s="4"/>
+      <c r="CE31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CF31" s="4"/>
       <c r="CG31" s="4"/>
       <c r="CH31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E9A1A7-8551-4ECC-B420-993ED87FFA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4455D9-DC1C-4CD7-A802-80F8FDD75D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE31" sqref="CE31"/>
+      <selection pane="bottomRight" activeCell="CG9" sqref="CG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,9 @@
     <col min="79" max="79" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="80" max="83" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="88" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.25">
@@ -887,6 +889,21 @@
       <c r="CG1" s="2">
         <v>45065</v>
       </c>
+      <c r="CH1" s="2">
+        <v>45068</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>45069</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>45070</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>45071</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>45072</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1144,6 +1161,21 @@
       <c r="CG2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="CH2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1393,7 +1425,9 @@
       <c r="CE3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF3" s="4"/>
+      <c r="CF3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG3" s="4"/>
       <c r="CH3" s="4"/>
       <c r="CI3" s="4"/>
@@ -1664,7 +1698,9 @@
       <c r="CE4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF4" s="4"/>
+      <c r="CF4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CG4" s="4"/>
       <c r="CH4" s="4"/>
       <c r="CI4" s="4"/>
@@ -2299,7 +2335,9 @@
       <c r="CE7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF7" s="4"/>
+      <c r="CF7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CG7" s="4"/>
       <c r="CH7" s="4"/>
       <c r="CI7" s="4"/>
@@ -2570,7 +2608,9 @@
       <c r="CE8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF8" s="4"/>
+      <c r="CF8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG8" s="4"/>
       <c r="CH8" s="4"/>
       <c r="CI8" s="4"/>
@@ -2843,7 +2883,9 @@
       <c r="CE9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF9" s="4"/>
+      <c r="CF9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CI9" s="4"/>
@@ -3116,7 +3158,9 @@
       <c r="CE10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF10" s="4"/>
+      <c r="CF10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG10" s="4"/>
       <c r="CH10" s="4"/>
       <c r="CI10" s="4"/>
@@ -3389,7 +3433,9 @@
       <c r="CE11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF11" s="4"/>
+      <c r="CF11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CI11" s="4"/>
@@ -3662,7 +3708,9 @@
       <c r="CE12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF12" s="4"/>
+      <c r="CF12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CI12" s="4"/>
@@ -3935,7 +3983,9 @@
       <c r="CE13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF13" s="4"/>
+      <c r="CF13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG13" s="4"/>
       <c r="CH13" s="4"/>
       <c r="CI13" s="4"/>
@@ -4208,7 +4258,9 @@
       <c r="CE14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF14" s="4"/>
+      <c r="CF14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="4"/>
@@ -4481,7 +4533,9 @@
       <c r="CE15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="4"/>
+      <c r="CF15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG15" s="4"/>
       <c r="CH15" s="4"/>
       <c r="CI15" s="4"/>
@@ -4754,7 +4808,9 @@
       <c r="CE16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF16" s="4"/>
+      <c r="CF16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG16" s="4"/>
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
@@ -5027,7 +5083,9 @@
       <c r="CE17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF17" s="4"/>
+      <c r="CF17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
@@ -5300,7 +5358,9 @@
       <c r="CE18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF18" s="4"/>
+      <c r="CF18" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG18" s="4"/>
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
@@ -5573,7 +5633,9 @@
       <c r="CE19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF19" s="4"/>
+      <c r="CF19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG19" s="4"/>
       <c r="CH19" s="4"/>
       <c r="CI19" s="4"/>
@@ -5846,7 +5908,9 @@
       <c r="CE20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF20" s="4"/>
+      <c r="CF20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG20" s="4"/>
       <c r="CH20" s="4"/>
       <c r="CI20" s="4"/>
@@ -6119,7 +6183,9 @@
       <c r="CE21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF21" s="4"/>
+      <c r="CF21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG21" s="4"/>
       <c r="CH21" s="4"/>
       <c r="CI21" s="4"/>
@@ -6392,7 +6458,9 @@
       <c r="CE22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF22" s="4"/>
+      <c r="CF22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG22" s="4"/>
       <c r="CH22" s="4"/>
       <c r="CI22" s="4"/>
@@ -6665,7 +6733,9 @@
       <c r="CE23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF23" s="4"/>
+      <c r="CF23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG23" s="4"/>
       <c r="CH23" s="4"/>
       <c r="CI23" s="4"/>
@@ -6938,7 +7008,9 @@
       <c r="CE24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF24" s="4"/>
+      <c r="CF24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG24" s="4"/>
       <c r="CH24" s="4"/>
       <c r="CI24" s="4"/>
@@ -7211,7 +7283,9 @@
       <c r="CE25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF25" s="4"/>
+      <c r="CF25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG25" s="4"/>
       <c r="CH25" s="4"/>
       <c r="CI25" s="4"/>
@@ -7484,7 +7558,9 @@
       <c r="CE26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF26" s="4"/>
+      <c r="CF26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG26" s="4"/>
       <c r="CH26" s="4"/>
       <c r="CI26" s="4"/>
@@ -7757,7 +7833,9 @@
       <c r="CE27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF27" s="4"/>
+      <c r="CF27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CG27" s="4"/>
       <c r="CH27" s="4"/>
       <c r="CI27" s="4"/>
@@ -8030,7 +8108,9 @@
       <c r="CE28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF28" s="4"/>
+      <c r="CF28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG28" s="4"/>
       <c r="CH28" s="4"/>
       <c r="CI28" s="4"/>
@@ -8303,7 +8383,9 @@
       <c r="CE29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF29" s="4"/>
+      <c r="CF29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG29" s="4"/>
       <c r="CH29" s="4"/>
       <c r="CI29" s="4"/>
@@ -8576,7 +8658,9 @@
       <c r="CE30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF30" s="4"/>
+      <c r="CF30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG30" s="4"/>
       <c r="CH30" s="4"/>
       <c r="CI30" s="4"/>
@@ -8849,7 +8933,9 @@
       <c r="CE31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CF31" s="4"/>
+      <c r="CF31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CG31" s="4"/>
       <c r="CH31" s="4"/>
       <c r="CI31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4455D9-DC1C-4CD7-A802-80F8FDD75D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBACBF-F998-4904-AAB9-8939D175D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG9" sqref="CG9"/>
+      <selection pane="bottomRight" activeCell="CG31" sqref="CG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,9 @@
       <c r="CF3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG3" s="4"/>
+      <c r="CG3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH3" s="4"/>
       <c r="CI3" s="4"/>
       <c r="CJ3" s="4"/>
@@ -1701,7 +1703,9 @@
       <c r="CF4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CG4" s="4"/>
+      <c r="CG4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CH4" s="4"/>
       <c r="CI4" s="4"/>
       <c r="CJ4" s="4"/>
@@ -2336,9 +2340,11 @@
         <v>36</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG7" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="CG7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CH7" s="4"/>
       <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
@@ -2611,7 +2617,9 @@
       <c r="CF8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG8" s="4"/>
+      <c r="CG8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH8" s="4"/>
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
@@ -2886,7 +2894,9 @@
       <c r="CF9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG9" s="4"/>
+      <c r="CG9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CH9" s="4"/>
       <c r="CI9" s="4"/>
       <c r="CJ9" s="4"/>
@@ -3161,7 +3171,9 @@
       <c r="CF10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG10" s="4"/>
+      <c r="CG10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CH10" s="4"/>
       <c r="CI10" s="4"/>
       <c r="CJ10" s="4"/>
@@ -3436,7 +3448,9 @@
       <c r="CF11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG11" s="4"/>
+      <c r="CG11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH11" s="4"/>
       <c r="CI11" s="4"/>
       <c r="CJ11" s="4"/>
@@ -3711,7 +3725,9 @@
       <c r="CF12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG12" s="4"/>
+      <c r="CG12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CH12" s="4"/>
       <c r="CI12" s="4"/>
       <c r="CJ12" s="4"/>
@@ -3986,7 +4002,9 @@
       <c r="CF13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG13" s="4"/>
+      <c r="CG13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH13" s="4"/>
       <c r="CI13" s="4"/>
       <c r="CJ13" s="4"/>
@@ -4261,7 +4279,9 @@
       <c r="CF14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG14" s="4"/>
+      <c r="CG14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CH14" s="4"/>
       <c r="CI14" s="4"/>
       <c r="CJ14" s="4"/>
@@ -4536,7 +4556,9 @@
       <c r="CF15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG15" s="4"/>
+      <c r="CG15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH15" s="4"/>
       <c r="CI15" s="4"/>
       <c r="CJ15" s="4"/>
@@ -4811,7 +4833,9 @@
       <c r="CF16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG16" s="4"/>
+      <c r="CG16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
       <c r="CJ16" s="4"/>
@@ -5086,7 +5110,9 @@
       <c r="CF17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG17" s="4"/>
+      <c r="CG17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
       <c r="CJ17" s="4"/>
@@ -5361,7 +5387,9 @@
       <c r="CF18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG18" s="4"/>
+      <c r="CG18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
       <c r="CJ18" s="4"/>
@@ -5636,7 +5664,9 @@
       <c r="CF19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG19" s="4"/>
+      <c r="CG19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH19" s="4"/>
       <c r="CI19" s="4"/>
       <c r="CJ19" s="4"/>
@@ -5911,7 +5941,9 @@
       <c r="CF20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG20" s="4"/>
+      <c r="CG20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH20" s="4"/>
       <c r="CI20" s="4"/>
       <c r="CJ20" s="4"/>
@@ -6186,7 +6218,9 @@
       <c r="CF21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG21" s="4"/>
+      <c r="CG21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH21" s="4"/>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
@@ -6461,7 +6495,9 @@
       <c r="CF22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG22" s="4"/>
+      <c r="CG22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH22" s="4"/>
       <c r="CI22" s="4"/>
       <c r="CJ22" s="4"/>
@@ -6736,7 +6772,9 @@
       <c r="CF23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG23" s="4"/>
+      <c r="CG23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH23" s="4"/>
       <c r="CI23" s="4"/>
       <c r="CJ23" s="4"/>
@@ -7011,7 +7049,9 @@
       <c r="CF24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG24" s="4"/>
+      <c r="CG24" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH24" s="4"/>
       <c r="CI24" s="4"/>
       <c r="CJ24" s="4"/>
@@ -7286,7 +7326,9 @@
       <c r="CF25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG25" s="4"/>
+      <c r="CG25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH25" s="4"/>
       <c r="CI25" s="4"/>
       <c r="CJ25" s="4"/>
@@ -7561,7 +7603,9 @@
       <c r="CF26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG26" s="4"/>
+      <c r="CG26" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CH26" s="4"/>
       <c r="CI26" s="4"/>
       <c r="CJ26" s="4"/>
@@ -7836,7 +7880,9 @@
       <c r="CF27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CG27" s="4"/>
+      <c r="CG27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CH27" s="4"/>
       <c r="CI27" s="4"/>
       <c r="CJ27" s="4"/>
@@ -8111,7 +8157,9 @@
       <c r="CF28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG28" s="4"/>
+      <c r="CG28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH28" s="4"/>
       <c r="CI28" s="4"/>
       <c r="CJ28" s="4"/>
@@ -8386,7 +8434,9 @@
       <c r="CF29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG29" s="4"/>
+      <c r="CG29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH29" s="4"/>
       <c r="CI29" s="4"/>
       <c r="CJ29" s="4"/>
@@ -8661,7 +8711,9 @@
       <c r="CF30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG30" s="4"/>
+      <c r="CG30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH30" s="4"/>
       <c r="CI30" s="4"/>
       <c r="CJ30" s="4"/>
@@ -8936,7 +8988,9 @@
       <c r="CF31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CG31" s="4"/>
+      <c r="CG31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CH31" s="4"/>
       <c r="CI31" s="4"/>
       <c r="CJ31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBACBF-F998-4904-AAB9-8939D175D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4214D19D-9FAA-4991-8577-4062B692CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -577,10 +577,10 @@
   <dimension ref="A1:DA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG31" sqref="CG31"/>
+      <selection pane="bottomRight" activeCell="CH31" sqref="CH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,8 +1431,12 @@
       <c r="CG3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
+      <c r="CH3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ3" s="4"/>
       <c r="CK3" s="4"/>
       <c r="CL3" s="4"/>
@@ -1706,8 +1710,12 @@
       <c r="CG4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
+      <c r="CH4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ4" s="4"/>
       <c r="CK4" s="4"/>
       <c r="CL4" s="4"/>
@@ -2345,8 +2353,12 @@
       <c r="CG7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CH7" s="4"/>
-      <c r="CI7" s="4"/>
+      <c r="CH7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ7" s="4"/>
       <c r="CK7" s="4"/>
       <c r="CL7" s="4"/>
@@ -2620,8 +2632,12 @@
       <c r="CG8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH8" s="4"/>
-      <c r="CI8" s="4"/>
+      <c r="CH8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ8" s="4"/>
       <c r="CK8" s="4"/>
       <c r="CL8" s="4"/>
@@ -2895,10 +2911,14 @@
         <v>35</v>
       </c>
       <c r="CG9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH9" s="4"/>
-      <c r="CI9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="CH9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ9" s="4"/>
       <c r="CK9" s="4"/>
       <c r="CL9" s="4"/>
@@ -3172,10 +3192,14 @@
         <v>36</v>
       </c>
       <c r="CG10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH10" s="4"/>
-      <c r="CI10" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="CH10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ10" s="4"/>
       <c r="CK10" s="4"/>
       <c r="CL10" s="4"/>
@@ -3728,8 +3752,12 @@
       <c r="CG12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CH12" s="4"/>
-      <c r="CI12" s="4"/>
+      <c r="CH12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ12" s="4"/>
       <c r="CK12" s="4"/>
       <c r="CL12" s="4"/>
@@ -4005,8 +4033,12 @@
       <c r="CG13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH13" s="4"/>
-      <c r="CI13" s="4"/>
+      <c r="CH13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ13" s="4"/>
       <c r="CK13" s="4"/>
       <c r="CL13" s="4"/>
@@ -4282,8 +4314,12 @@
       <c r="CG14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CH14" s="4"/>
-      <c r="CI14" s="4"/>
+      <c r="CH14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ14" s="4"/>
       <c r="CK14" s="4"/>
       <c r="CL14" s="4"/>
@@ -4559,8 +4595,12 @@
       <c r="CG15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH15" s="4"/>
-      <c r="CI15" s="4"/>
+      <c r="CH15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ15" s="4"/>
       <c r="CK15" s="4"/>
       <c r="CL15" s="4"/>
@@ -4836,8 +4876,12 @@
       <c r="CG16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH16" s="4"/>
-      <c r="CI16" s="4"/>
+      <c r="CH16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ16" s="4"/>
       <c r="CK16" s="4"/>
       <c r="CL16" s="4"/>
@@ -5113,8 +5157,12 @@
       <c r="CG17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH17" s="4"/>
-      <c r="CI17" s="4"/>
+      <c r="CH17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ17" s="4"/>
       <c r="CK17" s="4"/>
       <c r="CL17" s="4"/>
@@ -5390,8 +5438,12 @@
       <c r="CG18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH18" s="4"/>
-      <c r="CI18" s="4"/>
+      <c r="CH18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ18" s="4"/>
       <c r="CK18" s="4"/>
       <c r="CL18" s="4"/>
@@ -5667,8 +5719,12 @@
       <c r="CG19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH19" s="4"/>
-      <c r="CI19" s="4"/>
+      <c r="CH19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ19" s="4"/>
       <c r="CK19" s="4"/>
       <c r="CL19" s="4"/>
@@ -5944,8 +6000,12 @@
       <c r="CG20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH20" s="4"/>
-      <c r="CI20" s="4"/>
+      <c r="CH20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ20" s="4"/>
       <c r="CK20" s="4"/>
       <c r="CL20" s="4"/>
@@ -6221,8 +6281,12 @@
       <c r="CG21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH21" s="4"/>
-      <c r="CI21" s="4"/>
+      <c r="CH21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
@@ -6498,8 +6562,12 @@
       <c r="CG22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH22" s="4"/>
-      <c r="CI22" s="4"/>
+      <c r="CH22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ22" s="4"/>
       <c r="CK22" s="4"/>
       <c r="CL22" s="4"/>
@@ -6775,8 +6843,12 @@
       <c r="CG23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH23" s="4"/>
-      <c r="CI23" s="4"/>
+      <c r="CH23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI23" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ23" s="4"/>
       <c r="CK23" s="4"/>
       <c r="CL23" s="4"/>
@@ -7052,8 +7124,12 @@
       <c r="CG24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH24" s="4"/>
-      <c r="CI24" s="4"/>
+      <c r="CH24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CJ24" s="4"/>
       <c r="CK24" s="4"/>
       <c r="CL24" s="4"/>
@@ -7329,8 +7405,12 @@
       <c r="CG25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH25" s="4"/>
-      <c r="CI25" s="4"/>
+      <c r="CH25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ25" s="4"/>
       <c r="CK25" s="4"/>
       <c r="CL25" s="4"/>
@@ -7606,8 +7686,12 @@
       <c r="CG26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CH26" s="4"/>
-      <c r="CI26" s="4"/>
+      <c r="CH26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ26" s="4"/>
       <c r="CK26" s="4"/>
       <c r="CL26" s="4"/>
@@ -7883,8 +7967,12 @@
       <c r="CG27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CH27" s="4"/>
-      <c r="CI27" s="4"/>
+      <c r="CH27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ27" s="4"/>
       <c r="CK27" s="4"/>
       <c r="CL27" s="4"/>
@@ -8160,8 +8248,12 @@
       <c r="CG28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH28" s="4"/>
-      <c r="CI28" s="4"/>
+      <c r="CH28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ28" s="4"/>
       <c r="CK28" s="4"/>
       <c r="CL28" s="4"/>
@@ -8437,8 +8529,12 @@
       <c r="CG29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH29" s="4"/>
-      <c r="CI29" s="4"/>
+      <c r="CH29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ29" s="4"/>
       <c r="CK29" s="4"/>
       <c r="CL29" s="4"/>
@@ -8714,8 +8810,12 @@
       <c r="CG30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH30" s="4"/>
-      <c r="CI30" s="4"/>
+      <c r="CH30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ30" s="4"/>
       <c r="CK30" s="4"/>
       <c r="CL30" s="4"/>
@@ -8991,8 +9091,12 @@
       <c r="CG31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH31" s="4"/>
-      <c r="CI31" s="4"/>
+      <c r="CH31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CJ31" s="4"/>
       <c r="CK31" s="4"/>
       <c r="CL31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4214D19D-9FAA-4991-8577-4062B692CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5249BF-5416-4E88-B383-0C0F22CE02D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH31" sqref="CH31"/>
+      <selection pane="bottomRight" activeCell="CJ22" sqref="CJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1437,9 @@
       <c r="CI3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ3" s="4"/>
+      <c r="CJ3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK3" s="4"/>
       <c r="CL3" s="4"/>
       <c r="CM3" s="4"/>
@@ -1681,16 +1683,16 @@
         <v>39</v>
       </c>
       <c r="BX4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BY4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BZ4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CA4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CB4" s="4" t="s">
         <v>35</v>
@@ -1716,7 +1718,9 @@
       <c r="CI4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ4" s="4"/>
+      <c r="CJ4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK4" s="4"/>
       <c r="CL4" s="4"/>
       <c r="CM4" s="4"/>
@@ -2359,7 +2363,9 @@
       <c r="CI7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ7" s="4"/>
+      <c r="CJ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK7" s="4"/>
       <c r="CL7" s="4"/>
       <c r="CM7" s="4"/>
@@ -2638,7 +2644,9 @@
       <c r="CI8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ8" s="4"/>
+      <c r="CJ8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK8" s="4"/>
       <c r="CL8" s="4"/>
       <c r="CM8" s="4"/>
@@ -2919,7 +2927,9 @@
       <c r="CI9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ9" s="4"/>
+      <c r="CJ9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK9" s="4"/>
       <c r="CL9" s="4"/>
       <c r="CM9" s="4"/>
@@ -3200,7 +3210,9 @@
       <c r="CI10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ10" s="4"/>
+      <c r="CJ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK10" s="4"/>
       <c r="CL10" s="4"/>
       <c r="CM10" s="4"/>
@@ -3475,9 +3487,15 @@
       <c r="CG11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CH11" s="4"/>
-      <c r="CI11" s="4"/>
-      <c r="CJ11" s="4"/>
+      <c r="CH11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK11" s="4"/>
       <c r="CL11" s="4"/>
       <c r="CM11" s="4"/>
@@ -3758,7 +3776,9 @@
       <c r="CI12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ12" s="4"/>
+      <c r="CJ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK12" s="4"/>
       <c r="CL12" s="4"/>
       <c r="CM12" s="4"/>
@@ -4039,7 +4059,9 @@
       <c r="CI13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ13" s="4"/>
+      <c r="CJ13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK13" s="4"/>
       <c r="CL13" s="4"/>
       <c r="CM13" s="4"/>
@@ -4320,7 +4342,9 @@
       <c r="CI14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ14" s="4"/>
+      <c r="CJ14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK14" s="4"/>
       <c r="CL14" s="4"/>
       <c r="CM14" s="4"/>
@@ -4601,7 +4625,9 @@
       <c r="CI15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ15" s="4"/>
+      <c r="CJ15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK15" s="4"/>
       <c r="CL15" s="4"/>
       <c r="CM15" s="4"/>
@@ -4882,7 +4908,9 @@
       <c r="CI16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ16" s="4"/>
+      <c r="CJ16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK16" s="4"/>
       <c r="CL16" s="4"/>
       <c r="CM16" s="4"/>
@@ -5163,7 +5191,9 @@
       <c r="CI17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ17" s="4"/>
+      <c r="CJ17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK17" s="4"/>
       <c r="CL17" s="4"/>
       <c r="CM17" s="4"/>
@@ -5444,7 +5474,9 @@
       <c r="CI18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ18" s="4"/>
+      <c r="CJ18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK18" s="4"/>
       <c r="CL18" s="4"/>
       <c r="CM18" s="4"/>
@@ -5725,7 +5757,9 @@
       <c r="CI19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ19" s="4"/>
+      <c r="CJ19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK19" s="4"/>
       <c r="CL19" s="4"/>
       <c r="CM19" s="4"/>
@@ -6006,7 +6040,9 @@
       <c r="CI20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ20" s="4"/>
+      <c r="CJ20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK20" s="4"/>
       <c r="CL20" s="4"/>
       <c r="CM20" s="4"/>
@@ -6287,7 +6323,9 @@
       <c r="CI21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ21" s="4"/>
+      <c r="CJ21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
@@ -6568,7 +6606,9 @@
       <c r="CI22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ22" s="4"/>
+      <c r="CJ22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK22" s="4"/>
       <c r="CL22" s="4"/>
       <c r="CM22" s="4"/>
@@ -6849,7 +6889,9 @@
       <c r="CI23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ23" s="4"/>
+      <c r="CJ23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK23" s="4"/>
       <c r="CL23" s="4"/>
       <c r="CM23" s="4"/>
@@ -7130,7 +7172,9 @@
       <c r="CI24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CJ24" s="4"/>
+      <c r="CJ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK24" s="4"/>
       <c r="CL24" s="4"/>
       <c r="CM24" s="4"/>
@@ -7411,7 +7455,9 @@
       <c r="CI25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ25" s="4"/>
+      <c r="CJ25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK25" s="4"/>
       <c r="CL25" s="4"/>
       <c r="CM25" s="4"/>
@@ -7692,7 +7738,9 @@
       <c r="CI26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ26" s="4"/>
+      <c r="CJ26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK26" s="4"/>
       <c r="CL26" s="4"/>
       <c r="CM26" s="4"/>
@@ -7973,7 +8021,9 @@
       <c r="CI27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ27" s="4"/>
+      <c r="CJ27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CK27" s="4"/>
       <c r="CL27" s="4"/>
       <c r="CM27" s="4"/>
@@ -8254,7 +8304,9 @@
       <c r="CI28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ28" s="4"/>
+      <c r="CJ28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK28" s="4"/>
       <c r="CL28" s="4"/>
       <c r="CM28" s="4"/>
@@ -8535,7 +8587,9 @@
       <c r="CI29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ29" s="4"/>
+      <c r="CJ29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK29" s="4"/>
       <c r="CL29" s="4"/>
       <c r="CM29" s="4"/>
@@ -8816,7 +8870,9 @@
       <c r="CI30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ30" s="4"/>
+      <c r="CJ30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK30" s="4"/>
       <c r="CL30" s="4"/>
       <c r="CM30" s="4"/>
@@ -9097,7 +9153,9 @@
       <c r="CI31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CJ31" s="4"/>
+      <c r="CJ31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CK31" s="4"/>
       <c r="CL31" s="4"/>
       <c r="CM31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5249BF-5416-4E88-B383-0C0F22CE02D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA44C1A-3EE9-42EE-B7C8-C544FDE1ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ22" sqref="CJ22"/>
+      <selection pane="bottomRight" activeCell="CR14" sqref="CR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,9 @@
     <col min="84" max="84" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="85" max="88" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="93" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.25">
@@ -904,6 +906,21 @@
       <c r="CL1" s="2">
         <v>45072</v>
       </c>
+      <c r="CM1" s="2">
+        <v>45075</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>45076</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>45077</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>45078</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>45079</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1176,6 +1193,21 @@
       <c r="CL2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="CM2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CO2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1440,8 +1472,12 @@
       <c r="CJ3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
+      <c r="CK3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM3" s="4"/>
       <c r="CN3" s="4"/>
       <c r="CO3" s="4"/>
@@ -1721,8 +1757,12 @@
       <c r="CJ4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
+      <c r="CK4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM4" s="4"/>
       <c r="CN4" s="4"/>
       <c r="CO4" s="4"/>
@@ -2366,8 +2406,12 @@
       <c r="CJ7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
+      <c r="CK7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM7" s="4"/>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
@@ -2647,8 +2691,12 @@
       <c r="CJ8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK8" s="4"/>
-      <c r="CL8" s="4"/>
+      <c r="CK8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM8" s="4"/>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
@@ -2930,8 +2978,12 @@
       <c r="CJ9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK9" s="4"/>
-      <c r="CL9" s="4"/>
+      <c r="CK9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM9" s="4"/>
       <c r="CN9" s="4"/>
       <c r="CO9" s="4"/>
@@ -3213,8 +3265,12 @@
       <c r="CJ10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK10" s="4"/>
-      <c r="CL10" s="4"/>
+      <c r="CK10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM10" s="4"/>
       <c r="CN10" s="4"/>
       <c r="CO10" s="4"/>
@@ -3496,8 +3552,12 @@
       <c r="CJ11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK11" s="4"/>
-      <c r="CL11" s="4"/>
+      <c r="CK11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM11" s="4"/>
       <c r="CN11" s="4"/>
       <c r="CO11" s="4"/>
@@ -3779,8 +3839,12 @@
       <c r="CJ12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK12" s="4"/>
-      <c r="CL12" s="4"/>
+      <c r="CK12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM12" s="4"/>
       <c r="CN12" s="4"/>
       <c r="CO12" s="4"/>
@@ -4062,8 +4126,12 @@
       <c r="CJ13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK13" s="4"/>
-      <c r="CL13" s="4"/>
+      <c r="CK13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM13" s="4"/>
       <c r="CN13" s="4"/>
       <c r="CO13" s="4"/>
@@ -4345,8 +4413,12 @@
       <c r="CJ14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK14" s="4"/>
-      <c r="CL14" s="4"/>
+      <c r="CK14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM14" s="4"/>
       <c r="CN14" s="4"/>
       <c r="CO14" s="4"/>
@@ -4628,8 +4700,12 @@
       <c r="CJ15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK15" s="4"/>
-      <c r="CL15" s="4"/>
+      <c r="CK15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM15" s="4"/>
       <c r="CN15" s="4"/>
       <c r="CO15" s="4"/>
@@ -4911,8 +4987,12 @@
       <c r="CJ16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK16" s="4"/>
-      <c r="CL16" s="4"/>
+      <c r="CK16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM16" s="4"/>
       <c r="CN16" s="4"/>
       <c r="CO16" s="4"/>
@@ -5194,8 +5274,12 @@
       <c r="CJ17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK17" s="4"/>
-      <c r="CL17" s="4"/>
+      <c r="CK17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM17" s="4"/>
       <c r="CN17" s="4"/>
       <c r="CO17" s="4"/>
@@ -5477,8 +5561,12 @@
       <c r="CJ18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK18" s="4"/>
-      <c r="CL18" s="4"/>
+      <c r="CK18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM18" s="4"/>
       <c r="CN18" s="4"/>
       <c r="CO18" s="4"/>
@@ -5760,8 +5848,12 @@
       <c r="CJ19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK19" s="4"/>
-      <c r="CL19" s="4"/>
+      <c r="CK19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM19" s="4"/>
       <c r="CN19" s="4"/>
       <c r="CO19" s="4"/>
@@ -6043,8 +6135,12 @@
       <c r="CJ20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK20" s="4"/>
-      <c r="CL20" s="4"/>
+      <c r="CK20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM20" s="4"/>
       <c r="CN20" s="4"/>
       <c r="CO20" s="4"/>
@@ -6326,8 +6422,12 @@
       <c r="CJ21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK21" s="4"/>
-      <c r="CL21" s="4"/>
+      <c r="CK21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM21" s="4"/>
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
@@ -6609,8 +6709,12 @@
       <c r="CJ22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK22" s="4"/>
-      <c r="CL22" s="4"/>
+      <c r="CK22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM22" s="4"/>
       <c r="CN22" s="4"/>
       <c r="CO22" s="4"/>
@@ -6892,8 +6996,12 @@
       <c r="CJ23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK23" s="4"/>
-      <c r="CL23" s="4"/>
+      <c r="CK23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM23" s="4"/>
       <c r="CN23" s="4"/>
       <c r="CO23" s="4"/>
@@ -7175,8 +7283,12 @@
       <c r="CJ24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK24" s="4"/>
-      <c r="CL24" s="4"/>
+      <c r="CK24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CM24" s="4"/>
       <c r="CN24" s="4"/>
       <c r="CO24" s="4"/>
@@ -7458,8 +7570,12 @@
       <c r="CJ25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK25" s="4"/>
-      <c r="CL25" s="4"/>
+      <c r="CK25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM25" s="4"/>
       <c r="CN25" s="4"/>
       <c r="CO25" s="4"/>
@@ -7741,8 +7857,12 @@
       <c r="CJ26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK26" s="4"/>
-      <c r="CL26" s="4"/>
+      <c r="CK26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM26" s="4"/>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
@@ -8024,8 +8144,12 @@
       <c r="CJ27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CK27" s="4"/>
-      <c r="CL27" s="4"/>
+      <c r="CK27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM27" s="4"/>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
@@ -8307,8 +8431,12 @@
       <c r="CJ28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK28" s="4"/>
-      <c r="CL28" s="4"/>
+      <c r="CK28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM28" s="4"/>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
@@ -8590,8 +8718,12 @@
       <c r="CJ29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK29" s="4"/>
-      <c r="CL29" s="4"/>
+      <c r="CK29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM29" s="4"/>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
@@ -8873,8 +9005,12 @@
       <c r="CJ30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK30" s="4"/>
-      <c r="CL30" s="4"/>
+      <c r="CK30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM30" s="4"/>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
@@ -9156,8 +9292,12 @@
       <c r="CJ31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CK31" s="4"/>
-      <c r="CL31" s="4"/>
+      <c r="CK31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CM31" s="4"/>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA44C1A-3EE9-42EE-B7C8-C544FDE1ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA717307-81E5-49FC-934D-0EAF73A6F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR14" sqref="CR14"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,9 @@
       <c r="CL3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM3" s="4"/>
+      <c r="CM3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN3" s="4"/>
       <c r="CO3" s="4"/>
       <c r="CP3" s="4"/>
@@ -1763,7 +1765,9 @@
       <c r="CL4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM4" s="4"/>
+      <c r="CM4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN4" s="4"/>
       <c r="CO4" s="4"/>
       <c r="CP4" s="4"/>
@@ -2412,7 +2416,9 @@
       <c r="CL7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM7" s="4"/>
+      <c r="CM7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
       <c r="CP7" s="4"/>
@@ -2697,7 +2703,9 @@
       <c r="CL8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM8" s="4"/>
+      <c r="CM8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
       <c r="CP8" s="4"/>
@@ -2984,7 +2992,9 @@
       <c r="CL9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM9" s="4"/>
+      <c r="CM9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN9" s="4"/>
       <c r="CO9" s="4"/>
       <c r="CP9" s="4"/>
@@ -3271,7 +3281,9 @@
       <c r="CL10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM10" s="4"/>
+      <c r="CM10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN10" s="4"/>
       <c r="CO10" s="4"/>
       <c r="CP10" s="4"/>
@@ -3558,7 +3570,9 @@
       <c r="CL11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM11" s="4"/>
+      <c r="CM11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN11" s="4"/>
       <c r="CO11" s="4"/>
       <c r="CP11" s="4"/>
@@ -3845,7 +3859,9 @@
       <c r="CL12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM12" s="4"/>
+      <c r="CM12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN12" s="4"/>
       <c r="CO12" s="4"/>
       <c r="CP12" s="4"/>
@@ -4132,7 +4148,9 @@
       <c r="CL13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM13" s="4"/>
+      <c r="CM13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN13" s="4"/>
       <c r="CO13" s="4"/>
       <c r="CP13" s="4"/>
@@ -4419,7 +4437,9 @@
       <c r="CL14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM14" s="4"/>
+      <c r="CM14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN14" s="4"/>
       <c r="CO14" s="4"/>
       <c r="CP14" s="4"/>
@@ -4706,7 +4726,9 @@
       <c r="CL15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM15" s="4"/>
+      <c r="CM15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN15" s="4"/>
       <c r="CO15" s="4"/>
       <c r="CP15" s="4"/>
@@ -4993,7 +5015,9 @@
       <c r="CL16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM16" s="4"/>
+      <c r="CM16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN16" s="4"/>
       <c r="CO16" s="4"/>
       <c r="CP16" s="4"/>
@@ -5280,7 +5304,9 @@
       <c r="CL17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM17" s="4"/>
+      <c r="CM17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN17" s="4"/>
       <c r="CO17" s="4"/>
       <c r="CP17" s="4"/>
@@ -5567,7 +5593,9 @@
       <c r="CL18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM18" s="4"/>
+      <c r="CM18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN18" s="4"/>
       <c r="CO18" s="4"/>
       <c r="CP18" s="4"/>
@@ -5854,7 +5882,9 @@
       <c r="CL19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM19" s="4"/>
+      <c r="CM19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN19" s="4"/>
       <c r="CO19" s="4"/>
       <c r="CP19" s="4"/>
@@ -6141,7 +6171,9 @@
       <c r="CL20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM20" s="4"/>
+      <c r="CM20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN20" s="4"/>
       <c r="CO20" s="4"/>
       <c r="CP20" s="4"/>
@@ -6428,7 +6460,9 @@
       <c r="CL21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM21" s="4"/>
+      <c r="CM21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
@@ -6715,7 +6749,9 @@
       <c r="CL22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM22" s="4"/>
+      <c r="CM22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN22" s="4"/>
       <c r="CO22" s="4"/>
       <c r="CP22" s="4"/>
@@ -7002,7 +7038,9 @@
       <c r="CL23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM23" s="4"/>
+      <c r="CM23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN23" s="4"/>
       <c r="CO23" s="4"/>
       <c r="CP23" s="4"/>
@@ -7289,7 +7327,9 @@
       <c r="CL24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CM24" s="4"/>
+      <c r="CM24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN24" s="4"/>
       <c r="CO24" s="4"/>
       <c r="CP24" s="4"/>
@@ -7576,7 +7616,9 @@
       <c r="CL25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM25" s="4"/>
+      <c r="CM25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN25" s="4"/>
       <c r="CO25" s="4"/>
       <c r="CP25" s="4"/>
@@ -7863,7 +7905,9 @@
       <c r="CL26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM26" s="4"/>
+      <c r="CM26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
       <c r="CP26" s="4"/>
@@ -8150,7 +8194,9 @@
       <c r="CL27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM27" s="4"/>
+      <c r="CM27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
       <c r="CP27" s="4"/>
@@ -8437,7 +8483,9 @@
       <c r="CL28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM28" s="4"/>
+      <c r="CM28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
       <c r="CP28" s="4"/>
@@ -8724,7 +8772,9 @@
       <c r="CL29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM29" s="4"/>
+      <c r="CM29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
       <c r="CP29" s="4"/>
@@ -9011,7 +9061,9 @@
       <c r="CL30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM30" s="4"/>
+      <c r="CM30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
       <c r="CP30" s="4"/>
@@ -9298,7 +9350,9 @@
       <c r="CL31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CM31" s="4"/>
+      <c r="CM31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>
       <c r="CP31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA717307-81E5-49FC-934D-0EAF73A6F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73886A-A824-45F0-9710-498D7CC414CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="CN31" sqref="CN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,8 +1481,12 @@
       <c r="CM3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
+      <c r="CN3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP3" s="4"/>
       <c r="CQ3" s="4"/>
       <c r="CR3" s="4"/>
@@ -1768,8 +1772,12 @@
       <c r="CM4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
+      <c r="CN4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP4" s="4"/>
       <c r="CQ4" s="4"/>
       <c r="CR4" s="4"/>
@@ -2419,8 +2427,12 @@
       <c r="CM7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
+      <c r="CN7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP7" s="4"/>
       <c r="CQ7" s="4"/>
       <c r="CR7" s="4"/>
@@ -2706,8 +2718,12 @@
       <c r="CM8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
+      <c r="CN8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP8" s="4"/>
       <c r="CQ8" s="4"/>
       <c r="CR8" s="4"/>
@@ -2995,8 +3011,12 @@
       <c r="CM9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN9" s="4"/>
-      <c r="CO9" s="4"/>
+      <c r="CN9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP9" s="4"/>
       <c r="CQ9" s="4"/>
       <c r="CR9" s="4"/>
@@ -3284,8 +3304,12 @@
       <c r="CM10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN10" s="4"/>
-      <c r="CO10" s="4"/>
+      <c r="CN10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP10" s="4"/>
       <c r="CQ10" s="4"/>
       <c r="CR10" s="4"/>
@@ -3573,8 +3597,12 @@
       <c r="CM11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN11" s="4"/>
-      <c r="CO11" s="4"/>
+      <c r="CN11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP11" s="4"/>
       <c r="CQ11" s="4"/>
       <c r="CR11" s="4"/>
@@ -3862,8 +3890,12 @@
       <c r="CM12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN12" s="4"/>
-      <c r="CO12" s="4"/>
+      <c r="CN12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP12" s="4"/>
       <c r="CQ12" s="4"/>
       <c r="CR12" s="4"/>
@@ -4151,8 +4183,12 @@
       <c r="CM13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN13" s="4"/>
-      <c r="CO13" s="4"/>
+      <c r="CN13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO13" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP13" s="4"/>
       <c r="CQ13" s="4"/>
       <c r="CR13" s="4"/>
@@ -4440,8 +4476,12 @@
       <c r="CM14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN14" s="4"/>
-      <c r="CO14" s="4"/>
+      <c r="CN14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP14" s="4"/>
       <c r="CQ14" s="4"/>
       <c r="CR14" s="4"/>
@@ -4729,8 +4769,12 @@
       <c r="CM15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN15" s="4"/>
-      <c r="CO15" s="4"/>
+      <c r="CN15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP15" s="4"/>
       <c r="CQ15" s="4"/>
       <c r="CR15" s="4"/>
@@ -5018,8 +5062,12 @@
       <c r="CM16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN16" s="4"/>
-      <c r="CO16" s="4"/>
+      <c r="CN16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP16" s="4"/>
       <c r="CQ16" s="4"/>
       <c r="CR16" s="4"/>
@@ -5307,8 +5355,12 @@
       <c r="CM17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN17" s="4"/>
-      <c r="CO17" s="4"/>
+      <c r="CN17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO17" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP17" s="4"/>
       <c r="CQ17" s="4"/>
       <c r="CR17" s="4"/>
@@ -5596,8 +5648,12 @@
       <c r="CM18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN18" s="4"/>
-      <c r="CO18" s="4"/>
+      <c r="CN18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP18" s="4"/>
       <c r="CQ18" s="4"/>
       <c r="CR18" s="4"/>
@@ -5885,8 +5941,12 @@
       <c r="CM19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN19" s="4"/>
-      <c r="CO19" s="4"/>
+      <c r="CN19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP19" s="4"/>
       <c r="CQ19" s="4"/>
       <c r="CR19" s="4"/>
@@ -6174,8 +6234,12 @@
       <c r="CM20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN20" s="4"/>
-      <c r="CO20" s="4"/>
+      <c r="CN20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP20" s="4"/>
       <c r="CQ20" s="4"/>
       <c r="CR20" s="4"/>
@@ -6463,8 +6527,12 @@
       <c r="CM21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN21" s="4"/>
-      <c r="CO21" s="4"/>
+      <c r="CN21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4"/>
       <c r="CR21" s="4"/>
@@ -6752,8 +6820,12 @@
       <c r="CM22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN22" s="4"/>
-      <c r="CO22" s="4"/>
+      <c r="CN22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP22" s="4"/>
       <c r="CQ22" s="4"/>
       <c r="CR22" s="4"/>
@@ -7041,8 +7113,12 @@
       <c r="CM23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN23" s="4"/>
-      <c r="CO23" s="4"/>
+      <c r="CN23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP23" s="4"/>
       <c r="CQ23" s="4"/>
       <c r="CR23" s="4"/>
@@ -7330,8 +7406,12 @@
       <c r="CM24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN24" s="4"/>
-      <c r="CO24" s="4"/>
+      <c r="CN24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP24" s="4"/>
       <c r="CQ24" s="4"/>
       <c r="CR24" s="4"/>
@@ -7619,8 +7699,12 @@
       <c r="CM25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN25" s="4"/>
-      <c r="CO25" s="4"/>
+      <c r="CN25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP25" s="4"/>
       <c r="CQ25" s="4"/>
       <c r="CR25" s="4"/>
@@ -7908,8 +7992,12 @@
       <c r="CM26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
+      <c r="CN26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP26" s="4"/>
       <c r="CQ26" s="4"/>
       <c r="CR26" s="4"/>
@@ -8197,8 +8285,12 @@
       <c r="CM27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
+      <c r="CN27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP27" s="4"/>
       <c r="CQ27" s="4"/>
       <c r="CR27" s="4"/>
@@ -8486,8 +8578,12 @@
       <c r="CM28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN28" s="4"/>
-      <c r="CO28" s="4"/>
+      <c r="CN28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP28" s="4"/>
       <c r="CQ28" s="4"/>
       <c r="CR28" s="4"/>
@@ -8775,8 +8871,12 @@
       <c r="CM29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN29" s="4"/>
-      <c r="CO29" s="4"/>
+      <c r="CN29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP29" s="4"/>
       <c r="CQ29" s="4"/>
       <c r="CR29" s="4"/>
@@ -9064,8 +9164,12 @@
       <c r="CM30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN30" s="4"/>
-      <c r="CO30" s="4"/>
+      <c r="CN30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP30" s="4"/>
       <c r="CQ30" s="4"/>
       <c r="CR30" s="4"/>
@@ -9353,8 +9457,12 @@
       <c r="CM31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN31" s="4"/>
-      <c r="CO31" s="4"/>
+      <c r="CN31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP31" s="4"/>
       <c r="CQ31" s="4"/>
       <c r="CR31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA717307-81E5-49FC-934D-0EAF73A6F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1B000-DA28-45BE-89FE-2C311E035850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -577,10 +577,10 @@
   <dimension ref="A1:DA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="CQ32" sqref="CQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,8 +1483,12 @@
       </c>
       <c r="CN3" s="4"/>
       <c r="CO3" s="4"/>
-      <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
+      <c r="CP3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR3" s="4"/>
       <c r="CS3" s="4"/>
       <c r="CT3" s="4"/>
@@ -1770,8 +1774,12 @@
       </c>
       <c r="CN4" s="4"/>
       <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
+      <c r="CP4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CR4" s="4"/>
       <c r="CS4" s="4"/>
       <c r="CT4" s="4"/>
@@ -2421,8 +2429,12 @@
       </c>
       <c r="CN7" s="4"/>
       <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
+      <c r="CP7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR7" s="4"/>
       <c r="CS7" s="4"/>
       <c r="CT7" s="4"/>
@@ -2708,8 +2720,12 @@
       </c>
       <c r="CN8" s="4"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="4"/>
-      <c r="CQ8" s="4"/>
+      <c r="CP8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR8" s="4"/>
       <c r="CS8" s="4"/>
       <c r="CT8" s="4"/>
@@ -2997,8 +3013,12 @@
       </c>
       <c r="CN9" s="4"/>
       <c r="CO9" s="4"/>
-      <c r="CP9" s="4"/>
-      <c r="CQ9" s="4"/>
+      <c r="CP9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR9" s="4"/>
       <c r="CS9" s="4"/>
       <c r="CT9" s="4"/>
@@ -3286,8 +3306,12 @@
       </c>
       <c r="CN10" s="4"/>
       <c r="CO10" s="4"/>
-      <c r="CP10" s="4"/>
-      <c r="CQ10" s="4"/>
+      <c r="CP10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR10" s="4"/>
       <c r="CS10" s="4"/>
       <c r="CT10" s="4"/>
@@ -3575,8 +3599,12 @@
       </c>
       <c r="CN11" s="4"/>
       <c r="CO11" s="4"/>
-      <c r="CP11" s="4"/>
-      <c r="CQ11" s="4"/>
+      <c r="CP11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR11" s="4"/>
       <c r="CS11" s="4"/>
       <c r="CT11" s="4"/>
@@ -3864,8 +3892,12 @@
       </c>
       <c r="CN12" s="4"/>
       <c r="CO12" s="4"/>
-      <c r="CP12" s="4"/>
-      <c r="CQ12" s="4"/>
+      <c r="CP12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR12" s="4"/>
       <c r="CS12" s="4"/>
       <c r="CT12" s="4"/>
@@ -4153,8 +4185,12 @@
       </c>
       <c r="CN13" s="4"/>
       <c r="CO13" s="4"/>
-      <c r="CP13" s="4"/>
-      <c r="CQ13" s="4"/>
+      <c r="CP13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR13" s="4"/>
       <c r="CS13" s="4"/>
       <c r="CT13" s="4"/>
@@ -4442,8 +4478,12 @@
       </c>
       <c r="CN14" s="4"/>
       <c r="CO14" s="4"/>
-      <c r="CP14" s="4"/>
-      <c r="CQ14" s="4"/>
+      <c r="CP14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR14" s="4"/>
       <c r="CS14" s="4"/>
       <c r="CT14" s="4"/>
@@ -4731,8 +4771,12 @@
       </c>
       <c r="CN15" s="4"/>
       <c r="CO15" s="4"/>
-      <c r="CP15" s="4"/>
-      <c r="CQ15" s="4"/>
+      <c r="CP15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR15" s="4"/>
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
@@ -5020,8 +5064,12 @@
       </c>
       <c r="CN16" s="4"/>
       <c r="CO16" s="4"/>
-      <c r="CP16" s="4"/>
-      <c r="CQ16" s="4"/>
+      <c r="CP16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR16" s="4"/>
       <c r="CS16" s="4"/>
       <c r="CT16" s="4"/>
@@ -5309,8 +5357,12 @@
       </c>
       <c r="CN17" s="4"/>
       <c r="CO17" s="4"/>
-      <c r="CP17" s="4"/>
-      <c r="CQ17" s="4"/>
+      <c r="CP17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CR17" s="4"/>
       <c r="CS17" s="4"/>
       <c r="CT17" s="4"/>
@@ -5598,8 +5650,12 @@
       </c>
       <c r="CN18" s="4"/>
       <c r="CO18" s="4"/>
-      <c r="CP18" s="4"/>
-      <c r="CQ18" s="4"/>
+      <c r="CP18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR18" s="4"/>
       <c r="CS18" s="4"/>
       <c r="CT18" s="4"/>
@@ -5887,8 +5943,12 @@
       </c>
       <c r="CN19" s="4"/>
       <c r="CO19" s="4"/>
-      <c r="CP19" s="4"/>
-      <c r="CQ19" s="4"/>
+      <c r="CP19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR19" s="4"/>
       <c r="CS19" s="4"/>
       <c r="CT19" s="4"/>
@@ -6176,8 +6236,12 @@
       </c>
       <c r="CN20" s="4"/>
       <c r="CO20" s="4"/>
-      <c r="CP20" s="4"/>
-      <c r="CQ20" s="4"/>
+      <c r="CP20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR20" s="4"/>
       <c r="CS20" s="4"/>
       <c r="CT20" s="4"/>
@@ -6465,8 +6529,12 @@
       </c>
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
-      <c r="CP21" s="4"/>
-      <c r="CQ21" s="4"/>
+      <c r="CP21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
       <c r="CT21" s="4"/>
@@ -6754,8 +6822,12 @@
       </c>
       <c r="CN22" s="4"/>
       <c r="CO22" s="4"/>
-      <c r="CP22" s="4"/>
-      <c r="CQ22" s="4"/>
+      <c r="CP22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR22" s="4"/>
       <c r="CS22" s="4"/>
       <c r="CT22" s="4"/>
@@ -7043,8 +7115,12 @@
       </c>
       <c r="CN23" s="4"/>
       <c r="CO23" s="4"/>
-      <c r="CP23" s="4"/>
-      <c r="CQ23" s="4"/>
+      <c r="CP23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ23" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR23" s="4"/>
       <c r="CS23" s="4"/>
       <c r="CT23" s="4"/>
@@ -7332,8 +7408,12 @@
       </c>
       <c r="CN24" s="4"/>
       <c r="CO24" s="4"/>
-      <c r="CP24" s="4"/>
-      <c r="CQ24" s="4"/>
+      <c r="CP24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR24" s="4"/>
       <c r="CS24" s="4"/>
       <c r="CT24" s="4"/>
@@ -7621,8 +7701,12 @@
       </c>
       <c r="CN25" s="4"/>
       <c r="CO25" s="4"/>
-      <c r="CP25" s="4"/>
-      <c r="CQ25" s="4"/>
+      <c r="CP25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR25" s="4"/>
       <c r="CS25" s="4"/>
       <c r="CT25" s="4"/>
@@ -7910,8 +7994,12 @@
       </c>
       <c r="CN26" s="4"/>
       <c r="CO26" s="4"/>
-      <c r="CP26" s="4"/>
-      <c r="CQ26" s="4"/>
+      <c r="CP26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR26" s="4"/>
       <c r="CS26" s="4"/>
       <c r="CT26" s="4"/>
@@ -8199,8 +8287,12 @@
       </c>
       <c r="CN27" s="4"/>
       <c r="CO27" s="4"/>
-      <c r="CP27" s="4"/>
-      <c r="CQ27" s="4"/>
+      <c r="CP27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CR27" s="4"/>
       <c r="CS27" s="4"/>
       <c r="CT27" s="4"/>
@@ -8488,8 +8580,12 @@
       </c>
       <c r="CN28" s="4"/>
       <c r="CO28" s="4"/>
-      <c r="CP28" s="4"/>
-      <c r="CQ28" s="4"/>
+      <c r="CP28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR28" s="4"/>
       <c r="CS28" s="4"/>
       <c r="CT28" s="4"/>
@@ -8777,8 +8873,12 @@
       </c>
       <c r="CN29" s="4"/>
       <c r="CO29" s="4"/>
-      <c r="CP29" s="4"/>
-      <c r="CQ29" s="4"/>
+      <c r="CP29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR29" s="4"/>
       <c r="CS29" s="4"/>
       <c r="CT29" s="4"/>
@@ -9066,8 +9166,12 @@
       </c>
       <c r="CN30" s="4"/>
       <c r="CO30" s="4"/>
-      <c r="CP30" s="4"/>
-      <c r="CQ30" s="4"/>
+      <c r="CP30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CQ30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR30" s="4"/>
       <c r="CS30" s="4"/>
       <c r="CT30" s="4"/>
@@ -9355,8 +9459,12 @@
       </c>
       <c r="CN31" s="4"/>
       <c r="CO31" s="4"/>
-      <c r="CP31" s="4"/>
-      <c r="CQ31" s="4"/>
+      <c r="CP31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CR31" s="4"/>
       <c r="CS31" s="4"/>
       <c r="CT31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1B000-DA28-45BE-89FE-2C311E035850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21191427-1530-4642-A9A1-ED8473F5D7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CQ32" sqref="CQ32"/>
+      <selection pane="bottomRight" activeCell="CR31" sqref="CR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,15 @@
       <c r="CQ1" s="2">
         <v>45079</v>
       </c>
+      <c r="CR1" s="2">
+        <v>45082</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>45083</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>45084</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1208,6 +1217,15 @@
       <c r="CQ2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="CR2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1481,16 +1499,24 @@
       <c r="CM3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
+      <c r="CN3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="CQ3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
+      <c r="CR3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
       <c r="CV3" s="4"/>
@@ -1772,16 +1798,24 @@
       <c r="CM4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
+      <c r="CN4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="CQ4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
+      <c r="CR4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
       <c r="CV4" s="4"/>
@@ -2427,16 +2461,24 @@
       <c r="CM7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
+      <c r="CN7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
+      <c r="CR7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CT7" s="4"/>
       <c r="CU7" s="4"/>
       <c r="CV7" s="4"/>
@@ -2718,16 +2760,24 @@
       <c r="CM8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN8" s="4"/>
-      <c r="CO8" s="4"/>
+      <c r="CN8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR8" s="4"/>
-      <c r="CS8" s="4"/>
+      <c r="CR8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT8" s="4"/>
       <c r="CU8" s="4"/>
       <c r="CV8" s="4"/>
@@ -3011,16 +3061,24 @@
       <c r="CM9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN9" s="4"/>
-      <c r="CO9" s="4"/>
+      <c r="CN9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR9" s="4"/>
-      <c r="CS9" s="4"/>
+      <c r="CR9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT9" s="4"/>
       <c r="CU9" s="4"/>
       <c r="CV9" s="4"/>
@@ -3304,16 +3362,24 @@
       <c r="CM10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN10" s="4"/>
-      <c r="CO10" s="4"/>
+      <c r="CN10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR10" s="4"/>
-      <c r="CS10" s="4"/>
+      <c r="CR10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CT10" s="4"/>
       <c r="CU10" s="4"/>
       <c r="CV10" s="4"/>
@@ -3597,16 +3663,24 @@
       <c r="CM11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN11" s="4"/>
-      <c r="CO11" s="4"/>
+      <c r="CN11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR11" s="4"/>
-      <c r="CS11" s="4"/>
+      <c r="CR11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT11" s="4"/>
       <c r="CU11" s="4"/>
       <c r="CV11" s="4"/>
@@ -3890,16 +3964,24 @@
       <c r="CM12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN12" s="4"/>
-      <c r="CO12" s="4"/>
+      <c r="CN12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR12" s="4"/>
-      <c r="CS12" s="4"/>
+      <c r="CR12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CT12" s="4"/>
       <c r="CU12" s="4"/>
       <c r="CV12" s="4"/>
@@ -4183,16 +4265,24 @@
       <c r="CM13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN13" s="4"/>
-      <c r="CO13" s="4"/>
+      <c r="CN13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR13" s="4"/>
-      <c r="CS13" s="4"/>
+      <c r="CR13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT13" s="4"/>
       <c r="CU13" s="4"/>
       <c r="CV13" s="4"/>
@@ -4476,16 +4566,24 @@
       <c r="CM14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN14" s="4"/>
-      <c r="CO14" s="4"/>
+      <c r="CN14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR14" s="4"/>
-      <c r="CS14" s="4"/>
+      <c r="CR14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CT14" s="4"/>
       <c r="CU14" s="4"/>
       <c r="CV14" s="4"/>
@@ -4769,16 +4867,24 @@
       <c r="CM15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN15" s="4"/>
-      <c r="CO15" s="4"/>
+      <c r="CN15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR15" s="4"/>
-      <c r="CS15" s="4"/>
+      <c r="CR15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT15" s="4"/>
       <c r="CU15" s="4"/>
       <c r="CV15" s="4"/>
@@ -5062,16 +5168,24 @@
       <c r="CM16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN16" s="4"/>
-      <c r="CO16" s="4"/>
+      <c r="CN16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR16" s="4"/>
-      <c r="CS16" s="4"/>
+      <c r="CR16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT16" s="4"/>
       <c r="CU16" s="4"/>
       <c r="CV16" s="4"/>
@@ -5355,16 +5469,24 @@
       <c r="CM17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN17" s="4"/>
-      <c r="CO17" s="4"/>
+      <c r="CN17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CR17" s="4"/>
-      <c r="CS17" s="4"/>
+      <c r="CR17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT17" s="4"/>
       <c r="CU17" s="4"/>
       <c r="CV17" s="4"/>
@@ -5648,16 +5770,24 @@
       <c r="CM18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN18" s="4"/>
-      <c r="CO18" s="4"/>
+      <c r="CN18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR18" s="4"/>
-      <c r="CS18" s="4"/>
+      <c r="CR18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT18" s="4"/>
       <c r="CU18" s="4"/>
       <c r="CV18" s="4"/>
@@ -5941,16 +6071,24 @@
       <c r="CM19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN19" s="4"/>
-      <c r="CO19" s="4"/>
+      <c r="CN19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR19" s="4"/>
-      <c r="CS19" s="4"/>
+      <c r="CR19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT19" s="4"/>
       <c r="CU19" s="4"/>
       <c r="CV19" s="4"/>
@@ -6234,16 +6372,24 @@
       <c r="CM20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN20" s="4"/>
-      <c r="CO20" s="4"/>
+      <c r="CN20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR20" s="4"/>
-      <c r="CS20" s="4"/>
+      <c r="CR20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT20" s="4"/>
       <c r="CU20" s="4"/>
       <c r="CV20" s="4"/>
@@ -6527,16 +6673,24 @@
       <c r="CM21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN21" s="4"/>
-      <c r="CO21" s="4"/>
+      <c r="CN21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO21" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR21" s="4"/>
-      <c r="CS21" s="4"/>
+      <c r="CR21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT21" s="4"/>
       <c r="CU21" s="4"/>
       <c r="CV21" s="4"/>
@@ -6820,16 +6974,24 @@
       <c r="CM22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN22" s="4"/>
-      <c r="CO22" s="4"/>
+      <c r="CN22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR22" s="4"/>
-      <c r="CS22" s="4"/>
+      <c r="CR22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT22" s="4"/>
       <c r="CU22" s="4"/>
       <c r="CV22" s="4"/>
@@ -7113,16 +7275,24 @@
       <c r="CM23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN23" s="4"/>
-      <c r="CO23" s="4"/>
+      <c r="CN23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR23" s="4"/>
-      <c r="CS23" s="4"/>
+      <c r="CR23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT23" s="4"/>
       <c r="CU23" s="4"/>
       <c r="CV23" s="4"/>
@@ -7406,16 +7576,24 @@
       <c r="CM24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN24" s="4"/>
-      <c r="CO24" s="4"/>
+      <c r="CN24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CP24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR24" s="4"/>
-      <c r="CS24" s="4"/>
+      <c r="CR24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CT24" s="4"/>
       <c r="CU24" s="4"/>
       <c r="CV24" s="4"/>
@@ -7699,16 +7877,24 @@
       <c r="CM25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CN25" s="4"/>
-      <c r="CO25" s="4"/>
+      <c r="CN25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR25" s="4"/>
-      <c r="CS25" s="4"/>
+      <c r="CR25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT25" s="4"/>
       <c r="CU25" s="4"/>
       <c r="CV25" s="4"/>
@@ -7992,16 +8178,24 @@
       <c r="CM26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN26" s="4"/>
-      <c r="CO26" s="4"/>
+      <c r="CN26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR26" s="4"/>
-      <c r="CS26" s="4"/>
+      <c r="CR26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT26" s="4"/>
       <c r="CU26" s="4"/>
       <c r="CV26" s="4"/>
@@ -8283,18 +8477,26 @@
         <v>35</v>
       </c>
       <c r="CM27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN27" s="4"/>
-      <c r="CO27" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="CN27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CQ27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CR27" s="4"/>
-      <c r="CS27" s="4"/>
+      <c r="CR27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT27" s="4"/>
       <c r="CU27" s="4"/>
       <c r="CV27" s="4"/>
@@ -8578,16 +8780,24 @@
       <c r="CM28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN28" s="4"/>
-      <c r="CO28" s="4"/>
+      <c r="CN28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR28" s="4"/>
-      <c r="CS28" s="4"/>
+      <c r="CR28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT28" s="4"/>
       <c r="CU28" s="4"/>
       <c r="CV28" s="4"/>
@@ -8871,16 +9081,24 @@
       <c r="CM29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN29" s="4"/>
-      <c r="CO29" s="4"/>
+      <c r="CN29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR29" s="4"/>
-      <c r="CS29" s="4"/>
+      <c r="CR29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT29" s="4"/>
       <c r="CU29" s="4"/>
       <c r="CV29" s="4"/>
@@ -9164,16 +9382,24 @@
       <c r="CM30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN30" s="4"/>
-      <c r="CO30" s="4"/>
+      <c r="CN30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="CQ30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR30" s="4"/>
-      <c r="CS30" s="4"/>
+      <c r="CR30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT30" s="4"/>
       <c r="CU30" s="4"/>
       <c r="CV30" s="4"/>
@@ -9457,16 +9683,24 @@
       <c r="CM31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CN31" s="4"/>
-      <c r="CO31" s="4"/>
+      <c r="CN31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CP31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="CQ31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CR31" s="4"/>
-      <c r="CS31" s="4"/>
+      <c r="CR31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CT31" s="4"/>
       <c r="CU31" s="4"/>
       <c r="CV31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21191427-1530-4642-A9A1-ED8473F5D7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969E0F8-88FD-4C24-AE37-B5B8FB52C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="41">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR31" sqref="CR31"/>
+      <selection pane="bottomRight" activeCell="CU31" sqref="CU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +930,9 @@
       <c r="CT1" s="2">
         <v>45084</v>
       </c>
+      <c r="CU1" s="2">
+        <v>45089</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1226,6 +1229,9 @@
       <c r="CT2" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="CU2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1518,7 +1524,9 @@
         <v>35</v>
       </c>
       <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
+      <c r="CU3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV3" s="4"/>
       <c r="CW3" s="4"/>
       <c r="CX3" s="4"/>
@@ -1817,7 +1825,9 @@
         <v>35</v>
       </c>
       <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
+      <c r="CU4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CV4" s="4"/>
       <c r="CW4" s="4"/>
       <c r="CX4" s="4"/>
@@ -2480,7 +2490,9 @@
         <v>36</v>
       </c>
       <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
+      <c r="CU7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV7" s="4"/>
       <c r="CW7" s="4"/>
       <c r="CX7" s="4"/>
@@ -2779,7 +2791,9 @@
         <v>35</v>
       </c>
       <c r="CT8" s="4"/>
-      <c r="CU8" s="4"/>
+      <c r="CU8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV8" s="4"/>
       <c r="CW8" s="4"/>
       <c r="CX8" s="4"/>
@@ -3080,7 +3094,9 @@
         <v>35</v>
       </c>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="4"/>
+      <c r="CU9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV9" s="4"/>
       <c r="CW9" s="4"/>
       <c r="CX9" s="4"/>
@@ -3381,7 +3397,9 @@
         <v>36</v>
       </c>
       <c r="CT10" s="4"/>
-      <c r="CU10" s="4"/>
+      <c r="CU10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV10" s="4"/>
       <c r="CW10" s="4"/>
       <c r="CX10" s="4"/>
@@ -3682,7 +3700,9 @@
         <v>35</v>
       </c>
       <c r="CT11" s="4"/>
-      <c r="CU11" s="4"/>
+      <c r="CU11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV11" s="4"/>
       <c r="CW11" s="4"/>
       <c r="CX11" s="4"/>
@@ -3983,7 +4003,9 @@
         <v>36</v>
       </c>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="4"/>
+      <c r="CU12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV12" s="4"/>
       <c r="CW12" s="4"/>
       <c r="CX12" s="4"/>
@@ -4284,7 +4306,9 @@
         <v>35</v>
       </c>
       <c r="CT13" s="4"/>
-      <c r="CU13" s="4"/>
+      <c r="CU13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV13" s="4"/>
       <c r="CW13" s="4"/>
       <c r="CX13" s="4"/>
@@ -4585,7 +4609,9 @@
         <v>36</v>
       </c>
       <c r="CT14" s="4"/>
-      <c r="CU14" s="4"/>
+      <c r="CU14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV14" s="4"/>
       <c r="CW14" s="4"/>
       <c r="CX14" s="4"/>
@@ -4886,7 +4912,9 @@
         <v>35</v>
       </c>
       <c r="CT15" s="4"/>
-      <c r="CU15" s="4"/>
+      <c r="CU15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV15" s="4"/>
       <c r="CW15" s="4"/>
       <c r="CX15" s="4"/>
@@ -5187,7 +5215,9 @@
         <v>35</v>
       </c>
       <c r="CT16" s="4"/>
-      <c r="CU16" s="4"/>
+      <c r="CU16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV16" s="4"/>
       <c r="CW16" s="4"/>
       <c r="CX16" s="4"/>
@@ -5488,7 +5518,9 @@
         <v>35</v>
       </c>
       <c r="CT17" s="4"/>
-      <c r="CU17" s="4"/>
+      <c r="CU17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV17" s="4"/>
       <c r="CW17" s="4"/>
       <c r="CX17" s="4"/>
@@ -5789,7 +5821,9 @@
         <v>35</v>
       </c>
       <c r="CT18" s="4"/>
-      <c r="CU18" s="4"/>
+      <c r="CU18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV18" s="4"/>
       <c r="CW18" s="4"/>
       <c r="CX18" s="4"/>
@@ -6090,7 +6124,9 @@
         <v>35</v>
       </c>
       <c r="CT19" s="4"/>
-      <c r="CU19" s="4"/>
+      <c r="CU19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV19" s="4"/>
       <c r="CW19" s="4"/>
       <c r="CX19" s="4"/>
@@ -6391,7 +6427,9 @@
         <v>35</v>
       </c>
       <c r="CT20" s="4"/>
-      <c r="CU20" s="4"/>
+      <c r="CU20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV20" s="4"/>
       <c r="CW20" s="4"/>
       <c r="CX20" s="4"/>
@@ -6692,7 +6730,9 @@
         <v>35</v>
       </c>
       <c r="CT21" s="4"/>
-      <c r="CU21" s="4"/>
+      <c r="CU21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV21" s="4"/>
       <c r="CW21" s="4"/>
       <c r="CX21" s="4"/>
@@ -6993,7 +7033,9 @@
         <v>35</v>
       </c>
       <c r="CT22" s="4"/>
-      <c r="CU22" s="4"/>
+      <c r="CU22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV22" s="4"/>
       <c r="CW22" s="4"/>
       <c r="CX22" s="4"/>
@@ -7294,7 +7336,9 @@
         <v>35</v>
       </c>
       <c r="CT23" s="4"/>
-      <c r="CU23" s="4"/>
+      <c r="CU23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV23" s="4"/>
       <c r="CW23" s="4"/>
       <c r="CX23" s="4"/>
@@ -7595,7 +7639,9 @@
         <v>36</v>
       </c>
       <c r="CT24" s="4"/>
-      <c r="CU24" s="4"/>
+      <c r="CU24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV24" s="4"/>
       <c r="CW24" s="4"/>
       <c r="CX24" s="4"/>
@@ -7896,7 +7942,9 @@
         <v>35</v>
       </c>
       <c r="CT25" s="4"/>
-      <c r="CU25" s="4"/>
+      <c r="CU25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV25" s="4"/>
       <c r="CW25" s="4"/>
       <c r="CX25" s="4"/>
@@ -8197,7 +8245,9 @@
         <v>35</v>
       </c>
       <c r="CT26" s="4"/>
-      <c r="CU26" s="4"/>
+      <c r="CU26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CV26" s="4"/>
       <c r="CW26" s="4"/>
       <c r="CX26" s="4"/>
@@ -8498,7 +8548,9 @@
         <v>35</v>
       </c>
       <c r="CT27" s="4"/>
-      <c r="CU27" s="4"/>
+      <c r="CU27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV27" s="4"/>
       <c r="CW27" s="4"/>
       <c r="CX27" s="4"/>
@@ -8799,7 +8851,9 @@
         <v>35</v>
       </c>
       <c r="CT28" s="4"/>
-      <c r="CU28" s="4"/>
+      <c r="CU28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV28" s="4"/>
       <c r="CW28" s="4"/>
       <c r="CX28" s="4"/>
@@ -9100,7 +9154,9 @@
         <v>35</v>
       </c>
       <c r="CT29" s="4"/>
-      <c r="CU29" s="4"/>
+      <c r="CU29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV29" s="4"/>
       <c r="CW29" s="4"/>
       <c r="CX29" s="4"/>
@@ -9401,7 +9457,9 @@
         <v>35</v>
       </c>
       <c r="CT30" s="4"/>
-      <c r="CU30" s="4"/>
+      <c r="CU30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV30" s="4"/>
       <c r="CW30" s="4"/>
       <c r="CX30" s="4"/>
@@ -9702,7 +9760,9 @@
         <v>35</v>
       </c>
       <c r="CT31" s="4"/>
-      <c r="CU31" s="4"/>
+      <c r="CU31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CV31" s="4"/>
       <c r="CW31" s="4"/>
       <c r="CX31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969E0F8-88FD-4C24-AE37-B5B8FB52C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8076A585-D53D-4596-9BE9-FDB643609162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="42">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -149,12 +149,15 @@
   <si>
     <t>F/1</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +194,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -227,6 +238,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +594,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CU31" sqref="CU31"/>
+      <selection pane="bottomRight" activeCell="CW14" sqref="CW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +947,18 @@
       <c r="CU1" s="2">
         <v>45089</v>
       </c>
+      <c r="CV1" s="2">
+        <v>45090</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>45091</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>45092</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>45093</v>
+      </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1232,6 +1258,19 @@
       <c r="CU2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CV2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CZ2" s="4"/>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1523,13 +1562,19 @@
       <c r="CS3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT3" s="4"/>
+      <c r="CT3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
+      <c r="CV3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX3" s="8"/>
       <c r="CY3" s="4"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
@@ -1824,12 +1869,18 @@
       <c r="CS4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT4" s="4"/>
+      <c r="CT4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CU4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
+      <c r="CV4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="CX4" s="4"/>
       <c r="CY4" s="4"/>
       <c r="CZ4" s="4"/>
@@ -2489,12 +2540,18 @@
       <c r="CS7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT7" s="4"/>
+      <c r="CT7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CU7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CV7" s="4"/>
-      <c r="CW7" s="4"/>
+      <c r="CV7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX7" s="4"/>
       <c r="CY7" s="4"/>
       <c r="CZ7" s="4"/>
@@ -2790,12 +2847,18 @@
       <c r="CS8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT8" s="4"/>
+      <c r="CT8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV8" s="4"/>
-      <c r="CW8" s="4"/>
+      <c r="CV8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX8" s="4"/>
       <c r="CY8" s="4"/>
       <c r="CZ8" s="4"/>
@@ -3093,12 +3156,18 @@
       <c r="CS9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT9" s="4"/>
+      <c r="CT9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV9" s="4"/>
-      <c r="CW9" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="CV9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="CX9" s="4"/>
       <c r="CY9" s="4"/>
       <c r="CZ9" s="4"/>
@@ -3396,12 +3465,18 @@
       <c r="CS10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT10" s="4"/>
+      <c r="CT10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CU10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CV10" s="4"/>
-      <c r="CW10" s="4"/>
+      <c r="CV10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX10" s="4"/>
       <c r="CY10" s="4"/>
       <c r="CZ10" s="4"/>
@@ -3699,12 +3774,18 @@
       <c r="CS11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT11" s="4"/>
+      <c r="CT11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV11" s="4"/>
-      <c r="CW11" s="4"/>
+      <c r="CV11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX11" s="4"/>
       <c r="CY11" s="4"/>
       <c r="CZ11" s="4"/>
@@ -4002,12 +4083,18 @@
       <c r="CS12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT12" s="4"/>
+      <c r="CT12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CU12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CV12" s="4"/>
-      <c r="CW12" s="4"/>
+      <c r="CV12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX12" s="4"/>
       <c r="CY12" s="4"/>
       <c r="CZ12" s="4"/>
@@ -4305,12 +4392,18 @@
       <c r="CS13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT13" s="4"/>
+      <c r="CT13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV13" s="4"/>
-      <c r="CW13" s="4"/>
+      <c r="CV13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX13" s="4"/>
       <c r="CY13" s="4"/>
       <c r="CZ13" s="4"/>
@@ -4608,12 +4701,18 @@
       <c r="CS14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT14" s="4"/>
+      <c r="CT14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CU14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CV14" s="4"/>
-      <c r="CW14" s="4"/>
+      <c r="CV14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX14" s="4"/>
       <c r="CY14" s="4"/>
       <c r="CZ14" s="4"/>
@@ -4911,12 +5010,18 @@
       <c r="CS15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT15" s="4"/>
+      <c r="CT15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV15" s="4"/>
-      <c r="CW15" s="4"/>
+      <c r="CV15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX15" s="4"/>
       <c r="CY15" s="4"/>
       <c r="CZ15" s="4"/>
@@ -5214,12 +5319,18 @@
       <c r="CS16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT16" s="4"/>
+      <c r="CT16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV16" s="4"/>
-      <c r="CW16" s="4"/>
+      <c r="CV16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX16" s="4"/>
       <c r="CY16" s="4"/>
       <c r="CZ16" s="4"/>
@@ -5517,12 +5628,18 @@
       <c r="CS17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT17" s="4"/>
+      <c r="CT17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV17" s="4"/>
-      <c r="CW17" s="4"/>
+      <c r="CV17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX17" s="4"/>
       <c r="CY17" s="4"/>
       <c r="CZ17" s="4"/>
@@ -5820,12 +5937,18 @@
       <c r="CS18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT18" s="4"/>
+      <c r="CT18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV18" s="4"/>
-      <c r="CW18" s="4"/>
+      <c r="CV18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX18" s="4"/>
       <c r="CY18" s="4"/>
       <c r="CZ18" s="4"/>
@@ -6123,12 +6246,18 @@
       <c r="CS19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT19" s="4"/>
+      <c r="CT19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="CU19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV19" s="4"/>
-      <c r="CW19" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="CV19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW19" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX19" s="4"/>
       <c r="CY19" s="4"/>
       <c r="CZ19" s="4"/>
@@ -6426,12 +6555,18 @@
       <c r="CS20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT20" s="4"/>
+      <c r="CT20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV20" s="4"/>
-      <c r="CW20" s="4"/>
+      <c r="CV20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW20" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX20" s="4"/>
       <c r="CY20" s="4"/>
       <c r="CZ20" s="4"/>
@@ -6729,12 +6864,18 @@
       <c r="CS21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT21" s="4"/>
+      <c r="CT21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV21" s="4"/>
-      <c r="CW21" s="4"/>
+      <c r="CV21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX21" s="4"/>
       <c r="CY21" s="4"/>
       <c r="CZ21" s="4"/>
@@ -7032,12 +7173,18 @@
       <c r="CS22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT22" s="4"/>
+      <c r="CT22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV22" s="4"/>
-      <c r="CW22" s="4"/>
+      <c r="CV22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX22" s="4"/>
       <c r="CY22" s="4"/>
       <c r="CZ22" s="4"/>
@@ -7335,12 +7482,18 @@
       <c r="CS23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT23" s="4"/>
+      <c r="CT23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV23" s="4"/>
-      <c r="CW23" s="4"/>
+      <c r="CV23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX23" s="4"/>
       <c r="CY23" s="4"/>
       <c r="CZ23" s="4"/>
@@ -7638,12 +7791,18 @@
       <c r="CS24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CT24" s="4"/>
+      <c r="CT24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CU24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CV24" s="4"/>
-      <c r="CW24" s="4"/>
+      <c r="CV24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX24" s="4"/>
       <c r="CY24" s="4"/>
       <c r="CZ24" s="4"/>
@@ -7941,12 +8100,18 @@
       <c r="CS25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT25" s="4"/>
+      <c r="CT25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV25" s="4"/>
-      <c r="CW25" s="4"/>
+      <c r="CV25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX25" s="4"/>
       <c r="CY25" s="4"/>
       <c r="CZ25" s="4"/>
@@ -8244,12 +8409,18 @@
       <c r="CS26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT26" s="4"/>
+      <c r="CT26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="CU26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV26" s="4"/>
-      <c r="CW26" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="CV26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CX26" s="4"/>
       <c r="CY26" s="4"/>
       <c r="CZ26" s="4"/>
@@ -8547,12 +8718,18 @@
       <c r="CS27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT27" s="4"/>
+      <c r="CT27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV27" s="4"/>
-      <c r="CW27" s="4"/>
+      <c r="CV27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX27" s="4"/>
       <c r="CY27" s="4"/>
       <c r="CZ27" s="4"/>
@@ -8850,12 +9027,18 @@
       <c r="CS28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT28" s="4"/>
+      <c r="CT28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV28" s="4"/>
-      <c r="CW28" s="4"/>
+      <c r="CV28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX28" s="4"/>
       <c r="CY28" s="4"/>
       <c r="CZ28" s="4"/>
@@ -9153,12 +9336,18 @@
       <c r="CS29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT29" s="4"/>
+      <c r="CT29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV29" s="4"/>
-      <c r="CW29" s="4"/>
+      <c r="CV29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX29" s="4"/>
       <c r="CY29" s="4"/>
       <c r="CZ29" s="4"/>
@@ -9456,12 +9645,18 @@
       <c r="CS30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT30" s="4"/>
+      <c r="CT30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV30" s="4"/>
-      <c r="CW30" s="4"/>
+      <c r="CV30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX30" s="4"/>
       <c r="CY30" s="4"/>
       <c r="CZ30" s="4"/>
@@ -9759,12 +9954,18 @@
       <c r="CS31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CT31" s="4"/>
+      <c r="CT31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CU31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CV31" s="4"/>
-      <c r="CW31" s="4"/>
+      <c r="CV31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CX31" s="4"/>
       <c r="CY31" s="4"/>
       <c r="CZ31" s="4"/>
@@ -9781,7 +9982,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 A1:BS2 BC3:BR31 BT1:XFD1048576">
+  <conditionalFormatting sqref="A1:BS2 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 BT1:XFD1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -9789,7 +9990,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS3:BS31">
+  <conditionalFormatting sqref="BC3:BS31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8076A585-D53D-4596-9BE9-FDB643609162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427309B1-01DE-41A5-95CE-F6F7836361BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="42">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +190,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +586,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW14" sqref="CW14"/>
+      <selection pane="bottomRight" activeCell="CX27" sqref="CX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1566,9 @@
       <c r="CW3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX3" s="8"/>
+      <c r="CX3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="CY3" s="4"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
@@ -1876,12 +1870,14 @@
         <v>39</v>
       </c>
       <c r="CV4" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CW4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CX4" s="4"/>
+      <c r="CX4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY4" s="4"/>
       <c r="CZ4" s="4"/>
       <c r="DA4" s="4"/>
@@ -2552,7 +2548,9 @@
       <c r="CW7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX7" s="4"/>
+      <c r="CX7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY7" s="4"/>
       <c r="CZ7" s="4"/>
       <c r="DA7" s="4"/>
@@ -2859,7 +2857,9 @@
       <c r="CW8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX8" s="4"/>
+      <c r="CX8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
@@ -3168,7 +3168,9 @@
       <c r="CW9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="CX9" s="4"/>
+      <c r="CX9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY9" s="4"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
@@ -3477,7 +3479,9 @@
       <c r="CW10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX10" s="4"/>
+      <c r="CX10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY10" s="4"/>
       <c r="CZ10" s="4"/>
       <c r="DA10" s="4"/>
@@ -3786,7 +3790,9 @@
       <c r="CW11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX11" s="4"/>
+      <c r="CX11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
@@ -4095,7 +4101,9 @@
       <c r="CW12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX12" s="4"/>
+      <c r="CX12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY12" s="4"/>
       <c r="CZ12" s="4"/>
       <c r="DA12" s="4"/>
@@ -4404,7 +4412,9 @@
       <c r="CW13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX13" s="4"/>
+      <c r="CX13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY13" s="4"/>
       <c r="CZ13" s="4"/>
       <c r="DA13" s="4"/>
@@ -4713,7 +4723,9 @@
       <c r="CW14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX14" s="4"/>
+      <c r="CX14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY14" s="4"/>
       <c r="CZ14" s="4"/>
       <c r="DA14" s="4"/>
@@ -5022,7 +5034,9 @@
       <c r="CW15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX15" s="4"/>
+      <c r="CX15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY15" s="4"/>
       <c r="CZ15" s="4"/>
       <c r="DA15" s="4"/>
@@ -5331,7 +5345,9 @@
       <c r="CW16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX16" s="4"/>
+      <c r="CX16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY16" s="4"/>
       <c r="CZ16" s="4"/>
       <c r="DA16" s="4"/>
@@ -5640,7 +5656,9 @@
       <c r="CW17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX17" s="4"/>
+      <c r="CX17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY17" s="4"/>
       <c r="CZ17" s="4"/>
       <c r="DA17" s="4"/>
@@ -5949,7 +5967,9 @@
       <c r="CW18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX18" s="4"/>
+      <c r="CX18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY18" s="4"/>
       <c r="CZ18" s="4"/>
       <c r="DA18" s="4"/>
@@ -6258,7 +6278,9 @@
       <c r="CW19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX19" s="4"/>
+      <c r="CX19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY19" s="4"/>
       <c r="CZ19" s="4"/>
       <c r="DA19" s="4"/>
@@ -6876,7 +6898,9 @@
       <c r="CW21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX21" s="4"/>
+      <c r="CX21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY21" s="4"/>
       <c r="CZ21" s="4"/>
       <c r="DA21" s="4"/>
@@ -7185,7 +7209,9 @@
       <c r="CW22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX22" s="4"/>
+      <c r="CX22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY22" s="4"/>
       <c r="CZ22" s="4"/>
       <c r="DA22" s="4"/>
@@ -7494,7 +7520,9 @@
       <c r="CW23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX23" s="4"/>
+      <c r="CX23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY23" s="4"/>
       <c r="CZ23" s="4"/>
       <c r="DA23" s="4"/>
@@ -7803,7 +7831,9 @@
       <c r="CW24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX24" s="4"/>
+      <c r="CX24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY24" s="4"/>
       <c r="CZ24" s="4"/>
       <c r="DA24" s="4"/>
@@ -8112,7 +8142,9 @@
       <c r="CW25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX25" s="4"/>
+      <c r="CX25" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY25" s="4"/>
       <c r="CZ25" s="4"/>
       <c r="DA25" s="4"/>
@@ -8421,7 +8453,9 @@
       <c r="CW26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CX26" s="4"/>
+      <c r="CX26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY26" s="4"/>
       <c r="CZ26" s="4"/>
       <c r="DA26" s="4"/>
@@ -8730,7 +8764,9 @@
       <c r="CW27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX27" s="4"/>
+      <c r="CX27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="CY27" s="4"/>
       <c r="CZ27" s="4"/>
       <c r="DA27" s="4"/>
@@ -9039,7 +9075,9 @@
       <c r="CW28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX28" s="4"/>
+      <c r="CX28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY28" s="4"/>
       <c r="CZ28" s="4"/>
       <c r="DA28" s="4"/>
@@ -9348,7 +9386,9 @@
       <c r="CW29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX29" s="4"/>
+      <c r="CX29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY29" s="4"/>
       <c r="CZ29" s="4"/>
       <c r="DA29" s="4"/>
@@ -9657,7 +9697,9 @@
       <c r="CW30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX30" s="4"/>
+      <c r="CX30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY30" s="4"/>
       <c r="CZ30" s="4"/>
       <c r="DA30" s="4"/>
@@ -9966,7 +10008,9 @@
       <c r="CW31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX31" s="4"/>
+      <c r="CX31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="CY31" s="4"/>
       <c r="CZ31" s="4"/>
       <c r="DA31" s="4"/>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427309B1-01DE-41A5-95CE-F6F7836361BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A74B8F-718E-4378-BB58-7FA8D8CB3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="42">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,9 +230,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA38"/>
+  <dimension ref="A1:DB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX27" sqref="CX27"/>
+      <selection pane="bottomRight" activeCell="CY25" sqref="CY25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +640,7 @@
     <col min="95" max="95" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -951,8 +948,17 @@
       <c r="CY1" s="2">
         <v>45093</v>
       </c>
+      <c r="CZ1" s="2">
+        <v>45096</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>45097</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>45098</v>
+      </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1262,9 +1268,17 @@
       <c r="CY2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="CZ2" s="4"/>
+      <c r="CZ2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1566,14 +1580,18 @@
       <c r="CW3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
+      <c r="CX3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CY3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1878,11 +1896,15 @@
       <c r="CX4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
+      <c r="CY4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ4" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA4" s="4"/>
     </row>
-    <row r="5" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2063,7 +2085,7 @@
       <c r="CZ5" s="4"/>
       <c r="DA5" s="4"/>
     </row>
-    <row r="6" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2266,7 @@
       <c r="CZ6" s="4"/>
       <c r="DA6" s="4"/>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2551,11 +2573,15 @@
       <c r="CX7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY7" s="4"/>
-      <c r="CZ7" s="4"/>
+      <c r="CY7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ7" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2860,11 +2886,15 @@
       <c r="CX8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY8" s="4"/>
-      <c r="CZ8" s="4"/>
+      <c r="CY8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA8" s="4"/>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3171,11 +3201,15 @@
       <c r="CX9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY9" s="4"/>
-      <c r="CZ9" s="4"/>
+      <c r="CY9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA9" s="4"/>
     </row>
-    <row r="10" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3482,11 +3516,15 @@
       <c r="CX10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY10" s="4"/>
-      <c r="CZ10" s="4"/>
+      <c r="CY10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA10" s="4"/>
     </row>
-    <row r="11" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3793,11 +3831,15 @@
       <c r="CX11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY11" s="4"/>
-      <c r="CZ11" s="4"/>
+      <c r="CY11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA11" s="4"/>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4104,11 +4146,15 @@
       <c r="CX12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY12" s="4"/>
-      <c r="CZ12" s="4"/>
+      <c r="CY12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4415,11 +4461,15 @@
       <c r="CX13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY13" s="4"/>
-      <c r="CZ13" s="4"/>
+      <c r="CY13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA13" s="4"/>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4726,11 +4776,15 @@
       <c r="CX14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY14" s="4"/>
-      <c r="CZ14" s="4"/>
+      <c r="CY14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA14" s="4"/>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5037,11 +5091,15 @@
       <c r="CX15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY15" s="4"/>
-      <c r="CZ15" s="4"/>
+      <c r="CY15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA15" s="4"/>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5348,8 +5406,12 @@
       <c r="CX16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY16" s="4"/>
-      <c r="CZ16" s="4"/>
+      <c r="CY16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA16" s="4"/>
     </row>
     <row r="17" spans="1:105" x14ac:dyDescent="0.25">
@@ -5659,8 +5721,12 @@
       <c r="CX17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY17" s="4"/>
-      <c r="CZ17" s="4"/>
+      <c r="CY17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA17" s="4"/>
     </row>
     <row r="18" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5970,8 +6036,12 @@
       <c r="CX18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY18" s="4"/>
-      <c r="CZ18" s="4"/>
+      <c r="CY18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA18" s="4"/>
     </row>
     <row r="19" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6281,8 +6351,12 @@
       <c r="CX19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY19" s="4"/>
-      <c r="CZ19" s="4"/>
+      <c r="CY19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ19" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA19" s="4"/>
     </row>
     <row r="20" spans="1:105" x14ac:dyDescent="0.25">
@@ -6589,9 +6663,15 @@
       <c r="CW20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CX20" s="4"/>
-      <c r="CY20" s="4"/>
-      <c r="CZ20" s="4"/>
+      <c r="CX20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA20" s="4"/>
     </row>
     <row r="21" spans="1:105" x14ac:dyDescent="0.25">
@@ -6901,8 +6981,12 @@
       <c r="CX21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY21" s="4"/>
-      <c r="CZ21" s="4"/>
+      <c r="CY21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA21" s="4"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.25">
@@ -7212,8 +7296,12 @@
       <c r="CX22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY22" s="4"/>
-      <c r="CZ22" s="4"/>
+      <c r="CY22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA22" s="4"/>
     </row>
     <row r="23" spans="1:105" x14ac:dyDescent="0.25">
@@ -7523,8 +7611,12 @@
       <c r="CX23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY23" s="4"/>
-      <c r="CZ23" s="4"/>
+      <c r="CY23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA23" s="4"/>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.25">
@@ -7834,8 +7926,12 @@
       <c r="CX24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY24" s="4"/>
-      <c r="CZ24" s="4"/>
+      <c r="CY24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ24" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA24" s="4"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.25">
@@ -8145,8 +8241,12 @@
       <c r="CX25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY25" s="4"/>
-      <c r="CZ25" s="4"/>
+      <c r="CY25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA25" s="4"/>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.25">
@@ -8456,8 +8556,12 @@
       <c r="CX26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY26" s="4"/>
-      <c r="CZ26" s="4"/>
+      <c r="CY26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA26" s="4"/>
     </row>
     <row r="27" spans="1:105" x14ac:dyDescent="0.25">
@@ -8767,8 +8871,12 @@
       <c r="CX27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CY27" s="4"/>
-      <c r="CZ27" s="4"/>
+      <c r="CY27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="DA27" s="4"/>
     </row>
     <row r="28" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9078,8 +9186,12 @@
       <c r="CX28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY28" s="4"/>
-      <c r="CZ28" s="4"/>
+      <c r="CY28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA28" s="4"/>
     </row>
     <row r="29" spans="1:105" x14ac:dyDescent="0.25">
@@ -9389,8 +9501,12 @@
       <c r="CX29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY29" s="4"/>
-      <c r="CZ29" s="4"/>
+      <c r="CY29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA29" s="4"/>
     </row>
     <row r="30" spans="1:105" x14ac:dyDescent="0.25">
@@ -9700,8 +9816,12 @@
       <c r="CX30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY30" s="4"/>
-      <c r="CZ30" s="4"/>
+      <c r="CY30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA30" s="4"/>
     </row>
     <row r="31" spans="1:105" x14ac:dyDescent="0.25">
@@ -10011,8 +10131,12 @@
       <c r="CX31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="CY31" s="4"/>
-      <c r="CZ31" s="4"/>
+      <c r="CY31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ31" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="DA31" s="4"/>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A74B8F-718E-4378-BB58-7FA8D8CB3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E0ECE-9F67-468C-AFEE-6B8F8A523AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="42">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -583,7 +583,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CY25" sqref="CY25"/>
+      <selection pane="bottomRight" activeCell="DA30" sqref="DA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,9 @@
       <c r="CZ3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA3" s="4"/>
+      <c r="DA3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1902,7 +1904,9 @@
       <c r="CZ4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA4" s="4"/>
+      <c r="DA4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2579,7 +2583,9 @@
       <c r="CZ7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA7" s="4"/>
+      <c r="DA7" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2892,7 +2898,9 @@
       <c r="CZ8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA8" s="4"/>
+      <c r="DA8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3207,7 +3215,9 @@
       <c r="CZ9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA9" s="4"/>
+      <c r="DA9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3522,7 +3532,9 @@
       <c r="CZ10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA10" s="4"/>
+      <c r="DA10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3837,7 +3849,9 @@
       <c r="CZ11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA11" s="4"/>
+      <c r="DA11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4152,7 +4166,9 @@
       <c r="CZ12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA12" s="4"/>
+      <c r="DA12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4467,7 +4483,9 @@
       <c r="CZ13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA13" s="4"/>
+      <c r="DA13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4782,7 +4800,9 @@
       <c r="CZ14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA14" s="4"/>
+      <c r="DA14" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5097,7 +5117,9 @@
       <c r="CZ15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA15" s="4"/>
+      <c r="DA15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5412,7 +5434,9 @@
       <c r="CZ16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA16" s="4"/>
+      <c r="DA16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5727,7 +5751,9 @@
       <c r="CZ17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA17" s="4"/>
+      <c r="DA17" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6042,7 +6068,9 @@
       <c r="CZ18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA18" s="4"/>
+      <c r="DA18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6357,7 +6385,9 @@
       <c r="CZ19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA19" s="4"/>
+      <c r="DA19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6672,7 +6702,9 @@
       <c r="CZ20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA20" s="4"/>
+      <c r="DA20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6987,7 +7019,9 @@
       <c r="CZ21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA21" s="4"/>
+      <c r="DA21" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -7302,7 +7336,9 @@
       <c r="CZ22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA22" s="4"/>
+      <c r="DA22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7617,7 +7653,9 @@
       <c r="CZ23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA23" s="4"/>
+      <c r="DA23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7932,7 +7970,9 @@
       <c r="CZ24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA24" s="4"/>
+      <c r="DA24" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -8247,7 +8287,9 @@
       <c r="CZ25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA25" s="4"/>
+      <c r="DA25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8562,7 +8604,9 @@
       <c r="CZ26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA26" s="4"/>
+      <c r="DA26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8877,7 +8921,9 @@
       <c r="CZ27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="DA27" s="4"/>
+      <c r="DA27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -9192,7 +9238,9 @@
       <c r="CZ28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA28" s="4"/>
+      <c r="DA28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -9507,7 +9555,9 @@
       <c r="CZ29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA29" s="4"/>
+      <c r="DA29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -9822,7 +9872,9 @@
       <c r="CZ30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA30" s="4"/>
+      <c r="DA30" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -10137,7 +10189,9 @@
       <c r="CZ31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="DA31" s="4"/>
+      <c r="DA31" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG38" s="5"/>
@@ -10150,7 +10204,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:BS2 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 BT1:XFD1048576">
+  <conditionalFormatting sqref="A1:BS2 BT1:XFD1048576 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E0ECE-9F67-468C-AFEE-6B8F8A523AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5AE46-A03E-48EB-BF00-EDA8F8CBD626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="42">
   <si>
     <t>Andre Fernandes Izidro</t>
   </si>
@@ -580,10 +580,10 @@
   <dimension ref="A1:DB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DA30" sqref="DA30"/>
+      <selection pane="bottomRight" activeCell="CU31" sqref="CU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1592,9 @@
       <c r="DA3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1905,6 +1908,9 @@
         <v>36</v>
       </c>
       <c r="DA4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2586,6 +2592,9 @@
       <c r="DA7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB7" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2901,6 +2910,9 @@
       <c r="DA8" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3218,6 +3230,9 @@
       <c r="DA9" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3535,6 +3550,9 @@
       <c r="DA10" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3852,6 +3870,9 @@
       <c r="DA11" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4169,6 +4190,9 @@
       <c r="DA12" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4486,6 +4510,9 @@
       <c r="DA13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4803,6 +4830,9 @@
       <c r="DA14" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB14" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5120,6 +5150,9 @@
       <c r="DA15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5437,8 +5470,11 @@
       <c r="DA16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5722,7 +5758,7 @@
         <v>36</v>
       </c>
       <c r="CQ17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="CR17" s="4" t="s">
         <v>35</v>
@@ -5754,8 +5790,11 @@
       <c r="DA17" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB17" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6071,8 +6110,11 @@
       <c r="DA18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB18" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6388,8 +6430,11 @@
       <c r="DA19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6705,8 +6750,11 @@
       <c r="DA20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7020,10 +7068,13 @@
         <v>35</v>
       </c>
       <c r="DA21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7339,8 +7390,11 @@
       <c r="DA22" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7656,8 +7710,11 @@
       <c r="DA23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB23" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -7973,8 +8030,11 @@
       <c r="DA24" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB24" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -8290,8 +8350,11 @@
       <c r="DA25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8607,8 +8670,11 @@
       <c r="DA26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB26" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -8781,13 +8847,13 @@
         <v>35</v>
       </c>
       <c r="BF27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BG27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="BH27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BI27" s="4" t="s">
         <v>35</v>
@@ -8796,7 +8862,7 @@
         <v>35</v>
       </c>
       <c r="BK27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BL27" s="4" t="s">
         <v>35</v>
@@ -8808,7 +8874,7 @@
         <v>35</v>
       </c>
       <c r="BO27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BP27" s="4" t="s">
         <v>36</v>
@@ -8832,7 +8898,7 @@
         <v>35</v>
       </c>
       <c r="BW27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BX27" s="4" t="s">
         <v>36</v>
@@ -8853,16 +8919,16 @@
         <v>35</v>
       </c>
       <c r="CD27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CE27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CF27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="CG27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CH27" s="4" t="s">
         <v>35</v>
@@ -8889,7 +8955,7 @@
         <v>35</v>
       </c>
       <c r="CP27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CQ27" s="4" t="s">
         <v>36</v>
@@ -8919,13 +8985,16 @@
         <v>35</v>
       </c>
       <c r="CZ27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DA27" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB27" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9241,8 +9310,11 @@
       <c r="DA28" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -9558,8 +9630,11 @@
       <c r="DA29" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB29" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -9875,8 +9950,11 @@
       <c r="DA30" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="DB30" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -10190,6 +10268,9 @@
         <v>35</v>
       </c>
       <c r="DA31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10204,7 +10285,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:BS2 BT1:XFD1048576 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576">
+  <conditionalFormatting sqref="A1:BS2 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 BT1:XFD1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2des/frequencia.xlsx
+++ b/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5AE46-A03E-48EB-BF00-EDA8F8CBD626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F5F76-9BEE-4139-805F-10476C7AECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CU31" sqref="CU31"/>
+      <selection pane="bottomRight" activeCell="DC4" sqref="DC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10285,7 +10285,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:BS2 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576 BT1:XFD1048576">
+  <conditionalFormatting sqref="A1:BS2 BT1:XFD1048576 A3:BB3 A4:AG6 AH4:BB31 A7:G7 M7:AG7 I7:I22 J8:M10 A8:H22 N8:AG31 J11:J22 K11:M31 A23:J31 A32:BR1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
